--- a/examples/wangetal2018/out/ResultFiles/AC_1.0_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_1.0_nfc.xlsx
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="243">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
 AS NOTED IN THE LICENSE, ALLIANCE FOR SUSTAINABLE ENERGY, LLC: (i) DISCLAIMS ANY WARRANTIES, EXPRESS OR IMPLIED, INCLUDING BUT NOT LIMITED TO ANY IMPLIED WARRANTIES OF MERCHANTABILITY, FITNESS FOR A PARTICULAR PURPOSE, TITLE OR NON-INFRINGEMENT, AND (ii) DOES NOT ASSUME ANY LEGAL LIABILITY OR RESPONSIBILITY FOR THE ACCURACY, COMPLETENESS, OR USEFULNESS OF SOFTWARE OR ITS OUTPUTS. ANY RELIANCE BY THE USER ON THE SOFTWARE IS DONE AT THE USER’S OWN RISK.
-BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This tool is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Further, actual natural gas transmission pipeline network assessment and qualification will require additional evaluations, independent of BlendPATH application, as specified in ASME B31.12. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
+BlendPATH was developed to provide the user with economic analytical capabilities to evaluate potential natural gas transmission pipeline modifications for accommodating hydrogen blending or pure hydrogen streams and to assess the potential associated economic impacts. This model is intended for use during the early stages of pipeline repurposing concept evaluation, which is defined here as the initial project phase when the developer has already gathered the relevant pipeline material design and operation data but has not yet conducted the detailed pipeline materials testing, as specified in ASME B31.12, or performed the in-line inspections that qualify a given pipeline section for hydrogen or hydrogen blending service. Despite BlendPATH using ASME B31.12 to assess existing natural gas transmission pipelines and establish potential pipeline modifications for a natural gas transmission pipeline network to meet ASME B31.12 design requirements, BlendPATH does not qualify the examined pipeline network or modifications thereof for pure hydrogen or hydrogen blending. Pipeline owners and operators must conduct additional evaluations as specified in ASME B31.12 and other relevant code and regulations, independent of BlendPATH application, to qualify actual natural gas transmission pipelines for operation with hydrogen. Failure to do so may result in pipeline fatigue and/or rupture. It is the sole responsibility of the pipeline owner and operator to ensure that their pipeline qualifies for the ASME B31.12 design option that they choose, and any other relevant code and regulations, and that any defects present in the pipeline are acceptable at the operating pressure chosen.
 ----------------------------
 </t>
   </si>
@@ -174,12 +174,12 @@
     <t>LCOT: Compressor fuel (electric)</t>
   </si>
   <si>
+    <t>LCOT: Supply commpressor fuel (electric)</t>
+  </si>
+  <si>
     <t>LCOT: Supply commpressor fuel</t>
   </si>
   <si>
-    <t>LCOT: Supply commpressor fuel (electric)</t>
-  </si>
-  <si>
     <t>LCOT: Fixed O&amp;M</t>
   </si>
   <si>
@@ -234,6 +234,9 @@
     <t>Valve modifications</t>
   </si>
   <si>
+    <t>Hydrogen energy ratio</t>
+  </si>
+  <si>
     <t>$/MMBTU</t>
   </si>
   <si>
@@ -261,6 +264,9 @@
     <t>$</t>
   </si>
   <si>
+    <t>%</t>
+  </si>
+  <si>
     <t>Breakdown of original pipe by diameter, schedule and grade</t>
   </si>
   <si>
@@ -336,6 +342,12 @@
     <t>C_0_2</t>
   </si>
   <si>
+    <t>C_0_3</t>
+  </si>
+  <si>
+    <t>C_0_4</t>
+  </si>
+  <si>
     <t>CS1</t>
   </si>
   <si>
@@ -360,6 +372,12 @@
     <t>C_1_6</t>
   </si>
   <si>
+    <t>C_1_7</t>
+  </si>
+  <si>
+    <t>C_1_8</t>
+  </si>
+  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -438,10 +456,16 @@
     <t>PI01_pre_C_0_1</t>
   </si>
   <si>
+    <t>PI01_pre_C_0_2</t>
+  </si>
+  <si>
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02_pre_C_0_2</t>
+    <t>PI02_pre_C_0_3</t>
+  </si>
+  <si>
+    <t>PI02_pre_C_0_4</t>
   </si>
   <si>
     <t>PI02_remaining</t>
@@ -450,30 +474,36 @@
     <t>PI03_pre_C_1_0</t>
   </si>
   <si>
+    <t>PI03_pre_C_1_1</t>
+  </si>
+  <si>
     <t>PI03_remaining</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_1</t>
-  </si>
-  <si>
     <t>PI04_pre_C_1_2</t>
   </si>
   <si>
     <t>PI04_pre_C_1_3</t>
   </si>
   <si>
+    <t>PI04_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>PI04_pre_C_1_5</t>
+  </si>
+  <si>
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_4</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_5</t>
-  </si>
-  <si>
     <t>PI05_pre_C_1_6</t>
   </si>
   <si>
+    <t>PI05_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>PI05_pre_C_1_8</t>
+  </si>
+  <si>
     <t>PI05_remaining</t>
   </si>
   <si>
@@ -510,10 +540,16 @@
     <t>N_post_C_0_1</t>
   </si>
   <si>
+    <t>N_post_C_0_2</t>
+  </si>
+  <si>
     <t>N02</t>
   </si>
   <si>
-    <t>N_post_C_0_2</t>
+    <t>N_post_C_0_3</t>
+  </si>
+  <si>
+    <t>N_post_C_0_4</t>
   </si>
   <si>
     <t>N03_C</t>
@@ -522,30 +558,36 @@
     <t>N_post_C_1_0</t>
   </si>
   <si>
+    <t>N_post_C_1_1</t>
+  </si>
+  <si>
     <t>N04</t>
   </si>
   <si>
-    <t>N_post_C_1_1</t>
-  </si>
-  <si>
     <t>N_post_C_1_2</t>
   </si>
   <si>
     <t>N_post_C_1_3</t>
   </si>
   <si>
+    <t>N_post_C_1_4</t>
+  </si>
+  <si>
+    <t>N_post_C_1_5</t>
+  </si>
+  <si>
     <t>N05</t>
   </si>
   <si>
-    <t>N_post_C_1_4</t>
-  </si>
-  <si>
-    <t>N_post_C_1_5</t>
-  </si>
-  <si>
     <t>N_post_C_1_6</t>
   </si>
   <si>
+    <t>N_post_C_1_7</t>
+  </si>
+  <si>
+    <t>N_post_C_1_8</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
@@ -579,6 +621,12 @@
     <t>N_pre_C_0_2</t>
   </si>
   <si>
+    <t>N_pre_C_0_3</t>
+  </si>
+  <si>
+    <t>N_pre_C_0_4</t>
+  </si>
+  <si>
     <t>N03</t>
   </si>
   <si>
@@ -603,6 +651,12 @@
     <t>N_pre_C_1_6</t>
   </si>
   <si>
+    <t>N_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_8</t>
+  </si>
+  <si>
     <t>N06</t>
   </si>
   <si>
@@ -657,7 +711,7 @@
     <t>Isentropic efficiency</t>
   </si>
   <si>
-    <t>Mechanical efficiency</t>
+    <t>Driver efficiency</t>
   </si>
   <si>
     <t>Cost ($)</t>
@@ -1299,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1321,10 +1375,10 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>2.925445582273935</v>
+        <v>2.885724325811419</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1335,7 +1389,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1343,10 +1397,10 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.2443731636028535</v>
+        <v>0.2574602776426783</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1354,10 +1408,10 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03698611254942587</v>
+        <v>0.03701204438223286</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1368,7 +1422,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1376,10 +1430,10 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.007642937584506783</v>
+        <v>0.007648296227682133</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1387,10 +1441,10 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01811996082658734</v>
+        <v>0.01813266515700315</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1401,7 +1455,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1412,7 +1466,7 @@
         <v>0.01701801172198347</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1420,10 +1474,10 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>2.476958703660554</v>
+        <v>2.416866796912055</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1434,7 +1488,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1445,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1456,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1464,10 +1518,10 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.01889921127827282</v>
+        <v>0.02096916580351466</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1475,10 +1529,10 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.08968477263341605</v>
+        <v>0.09515874276891274</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1486,10 +1540,10 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.01576270841633555</v>
+        <v>0.01545832519535709</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1500,7 +1554,7 @@
         <v>4.40756</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1511,7 +1565,7 @@
         <v>7.39</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1522,7 +1576,7 @@
         <v>32.79022202852632</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1533,7 +1587,7 @@
         <v>527617.1846909181</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1544,7 +1598,7 @@
         <v>21984.04936212159</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1555,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1566,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1574,7 +1628,7 @@
         <v>60</v>
       </c>
       <c r="B25">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1582,10 +1636,10 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>196184.0278563304</v>
+        <v>198269.1390480743</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1593,10 +1647,10 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>39855.96610733841</v>
+        <v>38889.04607142742</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1604,10 +1658,10 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>1660.665254472434</v>
+        <v>1620.376919642809</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1618,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1629,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1637,10 +1691,10 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>335300665.1846081</v>
+        <v>353009789.9322541</v>
       </c>
       <c r="C31" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1651,7 +1705,7 @@
         <v>50748077.07023712</v>
       </c>
       <c r="C32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1662,7 +1716,7 @@
         <v>10486757.29473448</v>
       </c>
       <c r="C33" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1673,151 +1727,136 @@
         <v>24862120</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" t="s">
         <v>78</v>
       </c>
     </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35">
+        <v>100</v>
+      </c>
+      <c r="C35" t="s">
+        <v>79</v>
+      </c>
+    </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40">
+      <c r="C40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
         <v>650</v>
       </c>
-      <c r="B40">
+      <c r="B41">
         <v>400</v>
       </c>
-      <c r="C40" t="s">
-        <v>83</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="C41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G45" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" t="s">
+      <c r="G46" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="H46" s="2" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="C50" s="2" t="s">
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="B51" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="C51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="D51" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="E51" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" t="s">
+      <c r="G51" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B51">
-        <v>13.65013795647118</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>18305.10800238698</v>
-      </c>
-      <c r="E51">
-        <v>27490042.36334093</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>130.4650446242128</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
+      <c r="H51" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B52">
-        <v>13.39826213296569</v>
+        <v>8.459329574762013</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>17967.33748554964</v>
+        <v>11344.13014634735</v>
       </c>
       <c r="E52">
-        <v>27081002.23331811</v>
+        <v>19261182.41313111</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>128.057670379484</v>
+        <v>80.8524290363702</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1825,25 +1864,25 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B53">
-        <v>13.15497648442626</v>
+        <v>8.366999052935707</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>17641.0865651453</v>
+        <v>11220.31306996784</v>
       </c>
       <c r="E53">
-        <v>26686856.27188359</v>
+        <v>19118635.35200846</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>125.7323991555342</v>
+        <v>79.9699540248605</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1851,25 +1890,25 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B54">
-        <v>12.91960096725763</v>
+        <v>8.276521182893301</v>
       </c>
       <c r="C54">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>562.6932891118311</v>
+        <v>11098.98043668357</v>
       </c>
       <c r="E54">
-        <v>9953691.026075777</v>
+        <v>18979078.16302378</v>
       </c>
       <c r="F54">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>123.4827312438415</v>
+        <v>79.10518625546297</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1877,25 +1916,25 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B55">
-        <v>11.61795739925593</v>
+        <v>8.187751992086088</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>15579.91323155019</v>
+        <v>10979.93917642729</v>
       </c>
       <c r="E55">
-        <v>24218180.10130474</v>
+        <v>18842281.1978186</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>111.0419056107456</v>
+        <v>78.25674966992443</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1903,25 +1942,25 @@
     </row>
     <row r="56" spans="1:8">
       <c r="A56" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B56">
-        <v>9.276041997722372</v>
+        <v>8.100640644746926</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>12439.35783978565</v>
+        <v>10863.12111741852</v>
       </c>
       <c r="E56">
-        <v>20527904.20547205</v>
+        <v>18708159.09008107</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>88.65838843740015</v>
+        <v>77.42415839105819</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1929,25 +1968,25 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B57">
-        <v>6.165023907636829</v>
+        <v>8.015135730303786</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D57">
-        <v>8267.42036061914</v>
+        <v>0</v>
       </c>
       <c r="E57">
-        <v>15758640.49772951</v>
+        <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>58.92395533173863</v>
+        <v>76.60692104781761</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1955,25 +1994,25 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58">
-        <v>6.104824540841604</v>
+        <v>8.962706032243027</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>8186.691805759408</v>
+        <v>12019.16804335854</v>
       </c>
       <c r="E58">
-        <v>15667849.33794817</v>
+        <v>20040683.90933125</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>58.348582899582</v>
+        <v>85.66359154604318</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -1981,25 +2020,25 @@
     </row>
     <row r="59" spans="1:8">
       <c r="A59" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B59">
-        <v>6.045641379376378</v>
+        <v>8.856431856338219</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>8107.326002571311</v>
+        <v>11876.65224798668</v>
       </c>
       <c r="E59">
-        <v>15578646.15611999</v>
+        <v>19875782.80006103</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>57.78292313656823</v>
+        <v>84.64784612676344</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2007,25 +2046,25 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B60">
-        <v>5.98745093097803</v>
+        <v>5.838796077492993</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>8029.291447460158</v>
+        <v>7829.942315839653</v>
       </c>
       <c r="E60">
-        <v>15490992.74854892</v>
+        <v>15267311.98016097</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>57.22675150876469</v>
+        <v>55.80594080667674</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2033,25 +2072,25 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B61">
-        <v>5.930228231468136</v>
+        <v>4.797677006788207</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>7952.554662963399</v>
+        <v>6433.780819643121</v>
       </c>
       <c r="E61">
-        <v>15404848.82911965</v>
+        <v>13710447.5285542</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>56.67982941399297</v>
+        <v>45.8551515581164</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2059,25 +2098,25 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B62">
-        <v>5.873950569094544</v>
+        <v>4.761721121586729</v>
       </c>
       <c r="C62">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>6385.563258470235</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>13656983.41707673</v>
       </c>
       <c r="F62">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>56.1419397782742</v>
+        <v>45.51149304109094</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2085,25 +2124,25 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B63">
-        <v>9.526018034143515</v>
+        <v>4.72622731115287</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>12774.58070414714</v>
+        <v>6337.965348802222</v>
       </c>
       <c r="E63">
-        <v>20917706.65978424</v>
+        <v>13604226.25292682</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>91.04760493108455</v>
+        <v>45.17225093402187</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2111,25 +2150,25 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B64">
-        <v>9.373586475994456</v>
+        <v>4.691186791095684</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>12570.16693603809</v>
+        <v>6290.975310595134</v>
       </c>
       <c r="E64">
-        <v>20679894.58541565</v>
+        <v>13552162.21538609</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>89.5906973086508</v>
+        <v>44.83734127761439</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2137,25 +2176,25 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B65">
-        <v>9.225466463518005</v>
+        <v>4.656592233358407</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>12371.53503690691</v>
+        <v>6244.583316778291</v>
       </c>
       <c r="E65">
-        <v>20449157.88384064</v>
+        <v>13500779.6754841</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>88.17499850039677</v>
+        <v>44.50669403189853</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2163,25 +2202,25 @@
     </row>
     <row r="66" spans="1:8">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B66">
-        <v>9.08148086296168</v>
+        <v>4.622434621652499</v>
       </c>
       <c r="C66">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>6198.777276328434</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>13450064.52346317</v>
       </c>
       <c r="F66">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>86.79881550050851</v>
+        <v>44.18022302115279</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2189,25 +2228,25 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B67">
-        <v>8.941462450479104</v>
+        <v>4.588706388978171</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D67">
-        <v>11990.67997534149</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>20007706.99482556</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G67">
-        <v>85.46055001989554</v>
+        <v>43.85785592164184</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2215,25 +2254,25 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B68">
-        <v>8.805252403158905</v>
+        <v>9.526018034143515</v>
       </c>
       <c r="C68">
         <v>0</v>
       </c>
       <c r="D68">
-        <v>11808.01957768415</v>
+        <v>12774.58070414714</v>
       </c>
       <c r="E68">
-        <v>19796432.9672142</v>
+        <v>20917706.65978424</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>84.15868406377371</v>
+        <v>91.04760493108455</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2241,27 +2280,157 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69">
+        <v>9.373586475994456</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="D69">
+        <v>12570.16693603809</v>
+      </c>
+      <c r="E69">
+        <v>20679894.58541565</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>89.5906973086508</v>
+      </c>
+      <c r="H69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" t="s">
+        <v>120</v>
+      </c>
+      <c r="B70">
+        <v>9.225466463518005</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <v>12371.53503690691</v>
+      </c>
+      <c r="E70">
+        <v>20449157.88384064</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>88.17499850039677</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71">
+        <v>9.08148086296168</v>
+      </c>
+      <c r="C71">
+        <v>12.5</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>16916025.69007904</v>
+      </c>
+      <c r="G71">
+        <v>86.79881550050851</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72">
+        <v>8.941462450479104</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="D72">
+        <v>11990.67997534149</v>
+      </c>
+      <c r="E72">
+        <v>20007706.99482556</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>85.46055001989554</v>
+      </c>
+      <c r="H72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" t="s">
+        <v>123</v>
+      </c>
+      <c r="B73">
+        <v>8.805252403158905</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
+        <v>11808.01957768415</v>
+      </c>
+      <c r="E73">
+        <v>19796432.9672142</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>84.15868406377371</v>
+      </c>
+      <c r="H73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" t="s">
+        <v>124</v>
+      </c>
+      <c r="B74">
         <v>8.672700581132009</v>
       </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-      <c r="D69">
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="D74">
         <v>11630.26493330965</v>
       </c>
-      <c r="E69">
+      <c r="E74">
         <v>19591112.32266644</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
         <v>82.89178262798556</v>
       </c>
-      <c r="H69">
+      <c r="H74">
         <v>0</v>
       </c>
     </row>
@@ -2271,6 +2440,1587 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2">
+        <v>48.78015129916174</v>
+      </c>
+      <c r="G2">
+        <v>650</v>
+      </c>
+      <c r="H2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2">
+        <v>9.525</v>
+      </c>
+      <c r="J2" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L2">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="M2">
+        <v>7.249328333333335</v>
+      </c>
+      <c r="N2">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O2">
+        <v>4352017.909921894</v>
+      </c>
+      <c r="P2">
+        <v>41.43321390436613</v>
+      </c>
+      <c r="Q2">
+        <v>0.03189403244709129</v>
+      </c>
+      <c r="R2">
+        <v>63.90208667920037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E3" t="s">
+        <v>219</v>
+      </c>
+      <c r="F3">
+        <v>48.61246677057709</v>
+      </c>
+      <c r="G3">
+        <v>650</v>
+      </c>
+      <c r="H3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I3">
+        <v>9.525</v>
+      </c>
+      <c r="J3" t="s">
+        <v>85</v>
+      </c>
+      <c r="K3">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L3">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="M3">
+        <v>7.249328333333335</v>
+      </c>
+      <c r="N3">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O3">
+        <v>4355635.240885197</v>
+      </c>
+      <c r="P3">
+        <v>41.25762224439966</v>
+      </c>
+      <c r="Q3">
+        <v>0.03175815473112328</v>
+      </c>
+      <c r="R3">
+        <v>63.87687655640176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4">
+        <v>48.44713167539881</v>
+      </c>
+      <c r="G4">
+        <v>650</v>
+      </c>
+      <c r="H4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I4">
+        <v>9.525</v>
+      </c>
+      <c r="J4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L4">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="M4">
+        <v>7.249328333333335</v>
+      </c>
+      <c r="N4">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O4">
+        <v>4359193.289164404</v>
+      </c>
+      <c r="P4">
+        <v>41.08534095769222</v>
+      </c>
+      <c r="Q4">
+        <v>0.03162484332286948</v>
+      </c>
+      <c r="R4">
+        <v>63.8521098136686</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F5">
+        <v>48.28365040053951</v>
+      </c>
+      <c r="G5">
+        <v>650</v>
+      </c>
+      <c r="H5" t="s">
+        <v>86</v>
+      </c>
+      <c r="I5">
+        <v>9.525</v>
+      </c>
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>3.106855</v>
+      </c>
+      <c r="N5">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O5">
+        <v>4656524.152573038</v>
+      </c>
+      <c r="P5">
+        <v>38.45973916092472</v>
+      </c>
+      <c r="Q5">
+        <v>0.02955080802831657</v>
+      </c>
+      <c r="R5">
+        <v>61.88266466627411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" t="s">
+        <v>172</v>
+      </c>
+      <c r="D6" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F6">
+        <v>48.2836503896902</v>
+      </c>
+      <c r="G6">
+        <v>650</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6">
+        <v>9.525</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L6">
+        <v>6.666666666666664</v>
+      </c>
+      <c r="M6">
+        <v>4.142473333333332</v>
+      </c>
+      <c r="N6">
+        <v>4656524.152573038</v>
+      </c>
+      <c r="O6">
+        <v>4362698.168959313</v>
+      </c>
+      <c r="P6">
+        <v>40.91544602018061</v>
+      </c>
+      <c r="Q6">
+        <v>0.03149338544419533</v>
+      </c>
+      <c r="R6">
+        <v>63.8277424111517</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" t="s">
+        <v>219</v>
+      </c>
+      <c r="F7">
+        <v>48.12192918882189</v>
+      </c>
+      <c r="G7">
+        <v>650</v>
+      </c>
+      <c r="H7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I7">
+        <v>9.525</v>
+      </c>
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L7">
+        <v>11.66666666666666</v>
+      </c>
+      <c r="M7">
+        <v>7.24932833333333</v>
+      </c>
+      <c r="N7">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O7">
+        <v>4366151.308787311</v>
+      </c>
+      <c r="P7">
+        <v>40.7477688909971</v>
+      </c>
+      <c r="Q7">
+        <v>0.03136365081375768</v>
+      </c>
+      <c r="R7">
+        <v>63.80376305798013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" t="s">
+        <v>200</v>
+      </c>
+      <c r="E8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F8">
+        <v>47.96192910310707</v>
+      </c>
+      <c r="G8">
+        <v>650</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8">
+        <v>9.525</v>
+      </c>
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L8">
+        <v>11.66666666666667</v>
+      </c>
+      <c r="M8">
+        <v>7.249328333333335</v>
+      </c>
+      <c r="N8">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O8">
+        <v>4369554.288709993</v>
+      </c>
+      <c r="P8">
+        <v>40.58224434355105</v>
+      </c>
+      <c r="Q8">
+        <v>0.03123558866127136</v>
+      </c>
+      <c r="R8">
+        <v>63.78015948370773</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E9" t="s">
+        <v>219</v>
+      </c>
+      <c r="F9">
+        <v>47.80361790477728</v>
+      </c>
+      <c r="G9">
+        <v>650</v>
+      </c>
+      <c r="H9" t="s">
+        <v>86</v>
+      </c>
+      <c r="I9">
+        <v>9.525</v>
+      </c>
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L9">
+        <v>13</v>
+      </c>
+      <c r="M9">
+        <v>8.077823</v>
+      </c>
+      <c r="N9">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O9">
+        <v>4313178.083723024</v>
+      </c>
+      <c r="P9">
+        <v>40.95031325531264</v>
+      </c>
+      <c r="Q9">
+        <v>0.0315299368936753</v>
+      </c>
+      <c r="R9">
+        <v>64.1747406929411</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F10">
+        <v>47.62659074464341</v>
+      </c>
+      <c r="G10">
+        <v>650</v>
+      </c>
+      <c r="H10" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10">
+        <v>9.525</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L10">
+        <v>13</v>
+      </c>
+      <c r="M10">
+        <v>8.077823</v>
+      </c>
+      <c r="N10">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O10">
+        <v>4317394.199659195</v>
+      </c>
+      <c r="P10">
+        <v>40.76081876338765</v>
+      </c>
+      <c r="Q10">
+        <v>0.03138320751962895</v>
+      </c>
+      <c r="R10">
+        <v>64.14496815588812</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E11" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11">
+        <v>47.45166266218917</v>
+      </c>
+      <c r="G11">
+        <v>650</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+      <c r="I11">
+        <v>9.525</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L11">
+        <v>5.5</v>
+      </c>
+      <c r="M11">
+        <v>3.4175405</v>
+      </c>
+      <c r="N11">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O11">
+        <v>4642952.014375147</v>
+      </c>
+      <c r="P11">
+        <v>37.90191729472658</v>
+      </c>
+      <c r="Q11">
+        <v>0.02912452508322362</v>
+      </c>
+      <c r="R11">
+        <v>61.96846866801055</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" t="s">
+        <v>219</v>
+      </c>
+      <c r="F12">
+        <v>39.33900238939071</v>
+      </c>
+      <c r="G12">
+        <v>650</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I12">
+        <v>9.525</v>
+      </c>
+      <c r="J12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L12">
+        <v>7.5</v>
+      </c>
+      <c r="M12">
+        <v>4.6602825</v>
+      </c>
+      <c r="N12">
+        <v>4642952.014375147</v>
+      </c>
+      <c r="O12">
+        <v>4422028.727705522</v>
+      </c>
+      <c r="P12">
+        <v>32.91081077948136</v>
+      </c>
+      <c r="Q12">
+        <v>0.02532281575601534</v>
+      </c>
+      <c r="R12">
+        <v>63.41960185172471</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="C13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E13" t="s">
+        <v>219</v>
+      </c>
+      <c r="F13">
+        <v>39.22367723155822</v>
+      </c>
+      <c r="G13">
+        <v>650</v>
+      </c>
+      <c r="H13" t="s">
+        <v>86</v>
+      </c>
+      <c r="I13">
+        <v>9.525</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L13">
+        <v>13</v>
+      </c>
+      <c r="M13">
+        <v>8.077823</v>
+      </c>
+      <c r="N13">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O13">
+        <v>4496553.245275066</v>
+      </c>
+      <c r="P13">
+        <v>32.29760732773106</v>
+      </c>
+      <c r="Q13">
+        <v>0.02483973639188359</v>
+      </c>
+      <c r="R13">
+        <v>62.91829037350549</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E14" t="s">
+        <v>219</v>
+      </c>
+      <c r="F14">
+        <v>39.12891576863097</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+      <c r="H14" t="s">
+        <v>86</v>
+      </c>
+      <c r="I14">
+        <v>9.525</v>
+      </c>
+      <c r="J14" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L14">
+        <v>13</v>
+      </c>
+      <c r="M14">
+        <v>8.077823</v>
+      </c>
+      <c r="N14">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O14">
+        <v>4498348.567916081</v>
+      </c>
+      <c r="P14">
+        <v>32.2073669163341</v>
+      </c>
+      <c r="Q14">
+        <v>0.02477006499528892</v>
+      </c>
+      <c r="R14">
+        <v>62.90636564780746</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15">
+        <v>39.03486448946092</v>
+      </c>
+      <c r="G15">
+        <v>650</v>
+      </c>
+      <c r="H15" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15">
+        <v>9.525</v>
+      </c>
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>8.077823</v>
+      </c>
+      <c r="N15">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O15">
+        <v>4500125.650714075</v>
+      </c>
+      <c r="P15">
+        <v>32.11790312720098</v>
+      </c>
+      <c r="Q15">
+        <v>0.02470099519098269</v>
+      </c>
+      <c r="R15">
+        <v>62.89456901808417</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>155</v>
+      </c>
+      <c r="C16" t="s">
+        <v>182</v>
+      </c>
+      <c r="D16" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" t="s">
+        <v>219</v>
+      </c>
+      <c r="F16">
+        <v>38.94151426736429</v>
+      </c>
+      <c r="G16">
+        <v>650</v>
+      </c>
+      <c r="H16" t="s">
+        <v>86</v>
+      </c>
+      <c r="I16">
+        <v>9.525</v>
+      </c>
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>1.242742</v>
+      </c>
+      <c r="N16">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O16">
+        <v>4811535.140028085</v>
+      </c>
+      <c r="P16">
+        <v>30.06901998851067</v>
+      </c>
+      <c r="Q16">
+        <v>0.02308299009823035</v>
+      </c>
+      <c r="R16">
+        <v>60.92830701828348</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C17" t="s">
+        <v>183</v>
+      </c>
+      <c r="D17" t="s">
+        <v>207</v>
+      </c>
+      <c r="E17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17">
+        <v>38.94151426736411</v>
+      </c>
+      <c r="G17">
+        <v>650</v>
+      </c>
+      <c r="H17" t="s">
+        <v>86</v>
+      </c>
+      <c r="I17">
+        <v>9.525</v>
+      </c>
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L17">
+        <v>11</v>
+      </c>
+      <c r="M17">
+        <v>6.835081</v>
+      </c>
+      <c r="N17">
+        <v>4811535.140028085</v>
+      </c>
+      <c r="O17">
+        <v>4501884.8018276</v>
+      </c>
+      <c r="P17">
+        <v>32.0292044547561</v>
+      </c>
+      <c r="Q17">
+        <v>0.02463251803913867</v>
+      </c>
+      <c r="R17">
+        <v>62.8828982211652</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>157</v>
+      </c>
+      <c r="C18" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E18" t="s">
+        <v>219</v>
+      </c>
+      <c r="F18">
+        <v>38.84885614916231</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18">
+        <v>9.525</v>
+      </c>
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L18">
+        <v>13</v>
+      </c>
+      <c r="M18">
+        <v>8.077823</v>
+      </c>
+      <c r="N18">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O18">
+        <v>4503626.230482307</v>
+      </c>
+      <c r="P18">
+        <v>31.94126026049242</v>
+      </c>
+      <c r="Q18">
+        <v>0.02456462528281748</v>
+      </c>
+      <c r="R18">
+        <v>62.8713516569497</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D19" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" t="s">
+        <v>219</v>
+      </c>
+      <c r="F19">
+        <v>38.75688132641698</v>
+      </c>
+      <c r="G19">
+        <v>650</v>
+      </c>
+      <c r="H19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19">
+        <v>9.525</v>
+      </c>
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L19">
+        <v>13</v>
+      </c>
+      <c r="M19">
+        <v>8.077823</v>
+      </c>
+      <c r="N19">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O19">
+        <v>4505350.279559007</v>
+      </c>
+      <c r="P19">
+        <v>31.85405917599845</v>
+      </c>
+      <c r="Q19">
+        <v>0.02449730808518454</v>
+      </c>
+      <c r="R19">
+        <v>62.85992684554305</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" t="s">
+        <v>186</v>
+      </c>
+      <c r="D20" t="s">
+        <v>210</v>
+      </c>
+      <c r="E20" t="s">
+        <v>219</v>
+      </c>
+      <c r="F20">
+        <v>38.66558116877539</v>
+      </c>
+      <c r="G20">
+        <v>650</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20">
+        <v>9.525</v>
+      </c>
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20">
+        <v>8.077823</v>
+      </c>
+      <c r="N20">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O20">
+        <v>4507057.193088789</v>
+      </c>
+      <c r="P20">
+        <v>31.76759069947055</v>
+      </c>
+      <c r="Q20">
+        <v>0.02443055829183505</v>
+      </c>
+      <c r="R20">
+        <v>62.84862196908955</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
+      <c r="D21" t="s">
+        <v>211</v>
+      </c>
+      <c r="E21" t="s">
+        <v>219</v>
+      </c>
+      <c r="F21">
+        <v>38.57494719534453</v>
+      </c>
+      <c r="G21">
+        <v>650</v>
+      </c>
+      <c r="H21" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21">
+        <v>9.525</v>
+      </c>
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L21">
+        <v>25</v>
+      </c>
+      <c r="M21">
+        <v>15.534275</v>
+      </c>
+      <c r="N21">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O21">
+        <v>4153448.564810779</v>
+      </c>
+      <c r="P21">
+        <v>34.25080015762758</v>
+      </c>
+      <c r="Q21">
+        <v>0.02639839106826037</v>
+      </c>
+      <c r="R21">
+        <v>65.33540422081342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22" t="s">
+        <v>219</v>
+      </c>
+      <c r="F22">
+        <v>38.38679376119101</v>
+      </c>
+      <c r="G22">
+        <v>650</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22">
+        <v>9.525</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L22">
+        <v>25</v>
+      </c>
+      <c r="M22">
+        <v>15.534275</v>
+      </c>
+      <c r="N22">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O22">
+        <v>4160710.188521888</v>
+      </c>
+      <c r="P22">
+        <v>34.02722096456097</v>
+      </c>
+      <c r="Q22">
+        <v>0.02622484045690823</v>
+      </c>
+      <c r="R22">
+        <v>65.28121255174439</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>162</v>
+      </c>
+      <c r="C23" t="s">
+        <v>189</v>
+      </c>
+      <c r="D23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" t="s">
+        <v>219</v>
+      </c>
+      <c r="F23">
+        <v>38.20165108358196</v>
+      </c>
+      <c r="G23">
+        <v>650</v>
+      </c>
+      <c r="H23" t="s">
+        <v>86</v>
+      </c>
+      <c r="I23">
+        <v>9.525</v>
+      </c>
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L23">
+        <v>25</v>
+      </c>
+      <c r="M23">
+        <v>15.534275</v>
+      </c>
+      <c r="N23">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O23">
+        <v>4167810.768937777</v>
+      </c>
+      <c r="P23">
+        <v>33.80829267144698</v>
+      </c>
+      <c r="Q23">
+        <v>0.02605491927445856</v>
+      </c>
+      <c r="R23">
+        <v>65.22835774539517</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" t="s">
+        <v>214</v>
+      </c>
+      <c r="E24" t="s">
+        <v>219</v>
+      </c>
+      <c r="F24">
+        <v>38.01943400289225</v>
+      </c>
+      <c r="G24">
+        <v>650</v>
+      </c>
+      <c r="H24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I24">
+        <v>9.525</v>
+      </c>
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L24">
+        <v>25</v>
+      </c>
+      <c r="M24">
+        <v>15.534275</v>
+      </c>
+      <c r="N24">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O24">
+        <v>4174755.921982693</v>
+      </c>
+      <c r="P24">
+        <v>33.59385004013048</v>
+      </c>
+      <c r="Q24">
+        <v>0.02588849805763766</v>
+      </c>
+      <c r="R24">
+        <v>65.17678853185471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" t="s">
+        <v>215</v>
+      </c>
+      <c r="E25" t="s">
+        <v>219</v>
+      </c>
+      <c r="F25">
+        <v>37.84006085815943</v>
+      </c>
+      <c r="G25">
+        <v>650</v>
+      </c>
+      <c r="H25" t="s">
+        <v>86</v>
+      </c>
+      <c r="I25">
+        <v>9.525</v>
+      </c>
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L25">
+        <v>25</v>
+      </c>
+      <c r="M25">
+        <v>15.534275</v>
+      </c>
+      <c r="N25">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O25">
+        <v>4181550.994815283</v>
+      </c>
+      <c r="P25">
+        <v>33.38373610429525</v>
+      </c>
+      <c r="Q25">
+        <v>0.02572545384432878</v>
+      </c>
+      <c r="R25">
+        <v>65.12645631121418</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C26" t="s">
+        <v>192</v>
+      </c>
+      <c r="D26" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" t="s">
+        <v>219</v>
+      </c>
+      <c r="F26">
+        <v>37.66345329134793</v>
+      </c>
+      <c r="G26">
+        <v>650</v>
+      </c>
+      <c r="H26" t="s">
+        <v>86</v>
+      </c>
+      <c r="I26">
+        <v>9.525</v>
+      </c>
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L26">
+        <v>25</v>
+      </c>
+      <c r="M26">
+        <v>15.534275</v>
+      </c>
+      <c r="N26">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O26">
+        <v>4188201.082442428</v>
+      </c>
+      <c r="P26">
+        <v>33.17780163045602</v>
+      </c>
+      <c r="Q26">
+        <v>0.02556566974897012</v>
+      </c>
+      <c r="R26">
+        <v>65.07731497644764</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>166</v>
+      </c>
+      <c r="C27" t="s">
+        <v>193</v>
+      </c>
+      <c r="D27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" t="s">
+        <v>219</v>
+      </c>
+      <c r="F27">
+        <v>37.48953608141773</v>
+      </c>
+      <c r="G27">
+        <v>650</v>
+      </c>
+      <c r="H27" t="s">
+        <v>86</v>
+      </c>
+      <c r="I27">
+        <v>9.525</v>
+      </c>
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>15.534275</v>
+      </c>
+      <c r="N27">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O27">
+        <v>4194711.042476623</v>
+      </c>
+      <c r="P27">
+        <v>32.97590464044305</v>
+      </c>
+      <c r="Q27">
+        <v>0.02540903458623282</v>
+      </c>
+      <c r="R27">
+        <v>65.02932075493439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>167</v>
+      </c>
+      <c r="C28" t="s">
+        <v>194</v>
+      </c>
+      <c r="D28" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" t="s">
+        <v>219</v>
+      </c>
+      <c r="F28">
+        <v>37.318236972821</v>
+      </c>
+      <c r="G28">
+        <v>650</v>
+      </c>
+      <c r="H28" t="s">
+        <v>86</v>
+      </c>
+      <c r="I28">
+        <v>9.525</v>
+      </c>
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L28">
+        <v>25</v>
+      </c>
+      <c r="M28">
+        <v>15.534275</v>
+      </c>
+      <c r="N28">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O28">
+        <v>4201085.509443228</v>
+      </c>
+      <c r="P28">
+        <v>32.77790995134139</v>
+      </c>
+      <c r="Q28">
+        <v>0.02525544250874973</v>
+      </c>
+      <c r="R28">
+        <v>64.98243205770812</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R24"/>
   <sheetViews>
@@ -2280,58 +4030,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>119</v>
+        <v>220</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>120</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>124</v>
+        <v>221</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>125</v>
+        <v>222</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>82</v>
+        <v>223</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>126</v>
+        <v>224</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>128</v>
+        <v>225</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>129</v>
+        <v>226</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>132</v>
+        <v>229</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>133</v>
+        <v>230</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>134</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2339,55 +4089,55 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="D2" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F2">
-        <v>48.86399022075481</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="G2">
-        <v>650</v>
-      </c>
-      <c r="H2" t="s">
-        <v>84</v>
+        <v>7.249328333333333</v>
+      </c>
+      <c r="H2">
+        <v>1.1180613367773</v>
       </c>
       <c r="I2">
-        <v>9.525</v>
-      </c>
-      <c r="J2" t="s">
-        <v>83</v>
+        <v>80.8524290363702</v>
+      </c>
+      <c r="J2">
+        <v>8.459329574762013</v>
       </c>
       <c r="K2">
-        <v>4.865822962046021</v>
+        <v>11344.13014634735</v>
       </c>
       <c r="L2">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>10.8739925</v>
+        <v>8.459329574762013</v>
       </c>
       <c r="N2">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O2">
-        <v>4069293.419414723</v>
+        <v>0.357</v>
       </c>
       <c r="P2">
-        <v>44.24004450955481</v>
+        <v>19261182.41313111</v>
       </c>
       <c r="Q2">
-        <v>0.0341161986894701</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>65.97382017409021</v>
+        <v>19261182.41313111</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2395,55 +4145,55 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="D3" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F3">
-        <v>48.59324688804874</v>
+        <v>23.33333333333333</v>
       </c>
       <c r="G3">
-        <v>650</v>
-      </c>
-      <c r="H3" t="s">
-        <v>84</v>
+        <v>14.49865666666667</v>
+      </c>
+      <c r="H3">
+        <v>1.1171327930245</v>
       </c>
       <c r="I3">
-        <v>9.525</v>
-      </c>
-      <c r="J3" t="s">
-        <v>83</v>
+        <v>79.9699540248605</v>
+      </c>
+      <c r="J3">
+        <v>8.366999052935707</v>
       </c>
       <c r="K3">
-        <v>4.865822962046021</v>
+        <v>11220.31306996784</v>
       </c>
       <c r="L3">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>10.8739925</v>
+        <v>8.366999052935707</v>
       </c>
       <c r="N3">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O3">
-        <v>4078627.174902661</v>
+        <v>0.357</v>
       </c>
       <c r="P3">
-        <v>43.89790882055728</v>
+        <v>19118635.35200846</v>
       </c>
       <c r="Q3">
-        <v>0.03385027948866722</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>65.90205427755104</v>
+        <v>19118635.35200846</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2451,55 +4201,55 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F4">
-        <v>48.32849006114738</v>
+        <v>35</v>
       </c>
       <c r="G4">
-        <v>650</v>
-      </c>
-      <c r="H4" t="s">
-        <v>84</v>
+        <v>21.747985</v>
+      </c>
+      <c r="H4">
+        <v>1.116220970091173</v>
       </c>
       <c r="I4">
-        <v>9.525</v>
-      </c>
-      <c r="J4" t="s">
-        <v>83</v>
+        <v>79.10518625546297</v>
+      </c>
+      <c r="J4">
+        <v>8.276521182893301</v>
       </c>
       <c r="K4">
-        <v>4.865822962046021</v>
+        <v>11098.98043668357</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.106855</v>
+        <v>8.276521182893301</v>
       </c>
       <c r="N4">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O4">
-        <v>4656137.532556644</v>
+        <v>0.357</v>
       </c>
       <c r="P4">
-        <v>38.49850232926416</v>
+        <v>18979078.16302378</v>
       </c>
       <c r="Q4">
-        <v>0.02958065912641318</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>61.88510376838608</v>
+        <v>18979078.16302378</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2507,55 +4257,55 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="D5" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F5">
-        <v>48.32848977559838</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="G5">
-        <v>650</v>
-      </c>
-      <c r="H5" t="s">
-        <v>84</v>
+        <v>28.99731333333333</v>
+      </c>
+      <c r="H5">
+        <v>1.115324226797639</v>
       </c>
       <c r="I5">
-        <v>9.525</v>
-      </c>
-      <c r="J5" t="s">
-        <v>83</v>
+        <v>78.25674966992443</v>
+      </c>
+      <c r="J5">
+        <v>8.187751992086088</v>
       </c>
       <c r="K5">
-        <v>4.865822962046021</v>
+        <v>10979.93917642729</v>
       </c>
       <c r="L5">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>7.7671375</v>
+        <v>8.187751992086088</v>
       </c>
       <c r="N5">
-        <v>4656137.532556644</v>
+        <v>0.78</v>
       </c>
       <c r="O5">
-        <v>4087705.829168867</v>
+        <v>0.357</v>
       </c>
       <c r="P5">
-        <v>43.56643854834461</v>
+        <v>18842281.1978186</v>
       </c>
       <c r="Q5">
-        <v>0.03359267698934636</v>
+        <v>0</v>
       </c>
       <c r="R5">
-        <v>65.83248221398769</v>
+        <v>18842281.1978186</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2563,111 +4313,108 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>199</v>
       </c>
       <c r="D6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="E6" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F6">
-        <v>48.06864931048187</v>
+        <v>58.33333333333333</v>
       </c>
       <c r="G6">
-        <v>650</v>
-      </c>
-      <c r="H6" t="s">
-        <v>84</v>
+        <v>36.24664166666666</v>
+      </c>
+      <c r="H6">
+        <v>1.114442129445462</v>
       </c>
       <c r="I6">
-        <v>9.525</v>
-      </c>
-      <c r="J6" t="s">
-        <v>83</v>
+        <v>77.42415839105819</v>
+      </c>
+      <c r="J6">
+        <v>8.100640644746926</v>
       </c>
       <c r="K6">
-        <v>4.865822962046021</v>
+        <v>10863.12111741852</v>
       </c>
       <c r="L6">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>10.8739925</v>
+        <v>8.100640644746926</v>
       </c>
       <c r="N6">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O6">
-        <v>4096552.412545236</v>
+        <v>0.357</v>
       </c>
       <c r="P6">
-        <v>43.24327506686924</v>
+        <v>18708159.09008107</v>
       </c>
       <c r="Q6">
-        <v>0.03334156438602386</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>65.76490783793466</v>
+        <v>18708159.09008107</v>
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7">
-        <v>1</v>
-      </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="D7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F7">
-        <v>47.81346682676028</v>
+        <v>70</v>
       </c>
       <c r="G7">
-        <v>650</v>
-      </c>
-      <c r="H7" t="s">
-        <v>84</v>
+        <v>43.49597</v>
+      </c>
+      <c r="H7">
+        <v>1.113574209300542</v>
       </c>
       <c r="I7">
-        <v>9.525</v>
-      </c>
-      <c r="J7" t="s">
-        <v>83</v>
+        <v>76.60692104781761</v>
+      </c>
+      <c r="J7">
+        <v>8.015135730303786</v>
       </c>
       <c r="K7">
-        <v>4.865822962046021</v>
+        <v>10748.45731705198</v>
       </c>
       <c r="L7">
-        <v>16.25</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>10.09727875</v>
+        <v>12.5</v>
       </c>
       <c r="N7">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O7">
-        <v>4163878.679964736</v>
+        <v>0.357</v>
       </c>
       <c r="P7">
-        <v>42.35266949578079</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.03264061158470537</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R7">
-        <v>65.2576106919748</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2675,55 +4422,55 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="D8" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="E8" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F8">
-        <v>47.5839943612246</v>
+        <v>83</v>
       </c>
       <c r="G8">
-        <v>650</v>
-      </c>
-      <c r="H8" t="s">
-        <v>84</v>
+        <v>51.573793</v>
+      </c>
+      <c r="H8">
+        <v>1.128129390346426</v>
       </c>
       <c r="I8">
-        <v>9.525</v>
-      </c>
-      <c r="J8" t="s">
-        <v>83</v>
+        <v>85.66359154604318</v>
+      </c>
+      <c r="J8">
+        <v>8.962706032243027</v>
       </c>
       <c r="K8">
-        <v>4.865822962046021</v>
+        <v>12019.16804335854</v>
       </c>
       <c r="L8">
-        <v>15.25</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.475907749999999</v>
+        <v>8.962706032243027</v>
       </c>
       <c r="N8">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O8">
-        <v>4216834.383190117</v>
+        <v>0.357</v>
       </c>
       <c r="P8">
-        <v>41.64637867104992</v>
+        <v>20040683.90933125</v>
       </c>
       <c r="Q8">
-        <v>0.03208538735590462</v>
+        <v>0</v>
       </c>
       <c r="R8">
-        <v>64.86703775265585</v>
+        <v>20040683.90933125</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -2731,55 +4478,55 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>142</v>
+        <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="D9" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E9" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F9">
-        <v>39.47133408830755</v>
+        <v>96</v>
       </c>
       <c r="G9">
-        <v>650</v>
-      </c>
-      <c r="H9" t="s">
-        <v>84</v>
+        <v>59.651616</v>
+      </c>
+      <c r="H9">
+        <v>1.127027724832289</v>
       </c>
       <c r="I9">
-        <v>9.525</v>
-      </c>
-      <c r="J9" t="s">
-        <v>83</v>
+        <v>84.64784612676344</v>
+      </c>
+      <c r="J9">
+        <v>8.856431856338219</v>
       </c>
       <c r="K9">
-        <v>4.865822962046021</v>
+        <v>11876.65224798668</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0.621371</v>
+        <v>8.856431856338219</v>
       </c>
       <c r="N9">
-        <v>4216834.383190117</v>
+        <v>0.78</v>
       </c>
       <c r="O9">
-        <v>4184967.012709482</v>
+        <v>0.357</v>
       </c>
       <c r="P9">
-        <v>34.7958937614456</v>
+        <v>19875782.80006103</v>
       </c>
       <c r="Q9">
-        <v>0.02681307214941071</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>65.10119896149081</v>
+        <v>19875782.80006103</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -2787,55 +4534,55 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>143</v>
+        <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="D10" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F10">
-        <v>39.28811806258205</v>
+        <v>109</v>
       </c>
       <c r="G10">
-        <v>650</v>
-      </c>
-      <c r="H10" t="s">
-        <v>84</v>
+        <v>67.729439</v>
+      </c>
+      <c r="H10">
+        <v>1.100359871377582</v>
       </c>
       <c r="I10">
-        <v>9.525</v>
-      </c>
-      <c r="J10" t="s">
-        <v>83</v>
+        <v>55.80594080667674</v>
+      </c>
+      <c r="J10">
+        <v>5.838796077492993</v>
       </c>
       <c r="K10">
-        <v>4.865822962046021</v>
+        <v>7829.942315839653</v>
       </c>
       <c r="L10">
-        <v>16.25</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.09727875</v>
+        <v>5.838796077492993</v>
       </c>
       <c r="N10">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O10">
-        <v>4398087.988752052</v>
+        <v>0.357</v>
       </c>
       <c r="P10">
-        <v>33.03814997620211</v>
+        <v>15267311.98016097</v>
       </c>
       <c r="Q10">
-        <v>0.02542453000241323</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>63.58331089305499</v>
+        <v>15267311.98016097</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -2843,55 +4590,55 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="D11" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E11" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F11">
-        <v>39.16634940584257</v>
+        <v>122</v>
       </c>
       <c r="G11">
-        <v>650</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
+        <v>75.80726199999999</v>
+      </c>
+      <c r="H11">
+        <v>1.082122838678488</v>
       </c>
       <c r="I11">
-        <v>9.525</v>
-      </c>
-      <c r="J11" t="s">
-        <v>83</v>
+        <v>45.8551515581164</v>
+      </c>
+      <c r="J11">
+        <v>4.797677006788207</v>
       </c>
       <c r="K11">
-        <v>4.865822962046021</v>
+        <v>6433.780819643121</v>
       </c>
       <c r="L11">
-        <v>16.25</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>10.09727875</v>
+        <v>4.797677006788207</v>
       </c>
       <c r="N11">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O11">
-        <v>4401036.30253202</v>
+        <v>0.357</v>
       </c>
       <c r="P11">
-        <v>32.9147955153838</v>
+        <v>13710447.5285542</v>
       </c>
       <c r="Q11">
-        <v>0.02532914334297481</v>
+        <v>0</v>
       </c>
       <c r="R11">
-        <v>63.56307884944768</v>
+        <v>13710447.5285542</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -2899,55 +4646,55 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>145</v>
+        <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>205</v>
       </c>
       <c r="D12" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E12" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F12">
-        <v>39.04576977874636</v>
+        <v>135</v>
       </c>
       <c r="G12">
-        <v>650</v>
-      </c>
-      <c r="H12" t="s">
-        <v>84</v>
+        <v>83.885085</v>
+      </c>
+      <c r="H12">
+        <v>1.081690955821189</v>
       </c>
       <c r="I12">
-        <v>9.525</v>
-      </c>
-      <c r="J12" t="s">
-        <v>83</v>
+        <v>45.51149304109094</v>
+      </c>
+      <c r="J12">
+        <v>4.761721121586729</v>
       </c>
       <c r="K12">
-        <v>4.865822962046021</v>
+        <v>6385.563258470235</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>9.320565</v>
+        <v>4.761721121586729</v>
       </c>
       <c r="N12">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O12">
-        <v>4441091.71587808</v>
+        <v>0.357</v>
       </c>
       <c r="P12">
-        <v>32.53231090431819</v>
+        <v>13656983.41707673</v>
       </c>
       <c r="Q12">
-        <v>0.0250286677160073</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>63.29018337579796</v>
+        <v>13656983.41707673</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -2955,55 +4702,55 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
       <c r="C13" t="s">
-        <v>169</v>
+        <v>206</v>
       </c>
       <c r="D13" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F13">
-        <v>39.04576977874648</v>
+        <v>148</v>
       </c>
       <c r="G13">
-        <v>650</v>
-      </c>
-      <c r="H13" t="s">
-        <v>84</v>
+        <v>91.962908</v>
+      </c>
+      <c r="H13">
+        <v>1.081263800106097</v>
       </c>
       <c r="I13">
-        <v>9.525</v>
-      </c>
-      <c r="J13" t="s">
-        <v>83</v>
+        <v>45.17225093402187</v>
+      </c>
+      <c r="J13">
+        <v>4.72622731115287</v>
       </c>
       <c r="K13">
-        <v>4.865822962046021</v>
+        <v>6337.965348802222</v>
       </c>
       <c r="L13">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0.77671375</v>
+        <v>4.72622731115287</v>
       </c>
       <c r="N13">
-        <v>4441091.71587808</v>
+        <v>0.78</v>
       </c>
       <c r="O13">
-        <v>4403945.372272558</v>
+        <v>0.357</v>
       </c>
       <c r="P13">
-        <v>32.79287487606992</v>
+        <v>13604226.25292682</v>
       </c>
       <c r="Q13">
-        <v>0.02523486983198522</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>63.54313577419381</v>
+        <v>13604226.25292682</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3011,55 +4758,55 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>170</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F14">
-        <v>38.92635910965954</v>
+        <v>161</v>
       </c>
       <c r="G14">
-        <v>650</v>
-      </c>
-      <c r="H14" t="s">
-        <v>84</v>
+        <v>100.040731</v>
+      </c>
+      <c r="H14">
+        <v>1.080841286758532</v>
       </c>
       <c r="I14">
-        <v>9.525</v>
-      </c>
-      <c r="J14" t="s">
-        <v>83</v>
+        <v>44.83734127761439</v>
+      </c>
+      <c r="J14">
+        <v>4.691186791095684</v>
       </c>
       <c r="K14">
-        <v>4.865822962046021</v>
+        <v>6290.975310595134</v>
       </c>
       <c r="L14">
-        <v>16.25</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>10.09727875</v>
+        <v>4.691186791095684</v>
       </c>
       <c r="N14">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O14">
-        <v>4406815.926629577</v>
+        <v>0.357</v>
       </c>
       <c r="P14">
-        <v>32.67236024967586</v>
+        <v>13552162.21538609</v>
       </c>
       <c r="Q14">
-        <v>0.02514168781713306</v>
+        <v>0</v>
       </c>
       <c r="R14">
-        <v>63.52347585775136</v>
+        <v>13552162.21538609</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3067,55 +4814,55 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>148</v>
+        <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>171</v>
+        <v>208</v>
       </c>
       <c r="D15" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F15">
-        <v>38.80809779097932</v>
+        <v>174</v>
       </c>
       <c r="G15">
-        <v>650</v>
-      </c>
-      <c r="H15" t="s">
-        <v>84</v>
+        <v>108.118554</v>
+      </c>
+      <c r="H15">
+        <v>1.080423355098215</v>
       </c>
       <c r="I15">
-        <v>9.525</v>
-      </c>
-      <c r="J15" t="s">
-        <v>83</v>
+        <v>44.50669403189853</v>
+      </c>
+      <c r="J15">
+        <v>4.656592233358407</v>
       </c>
       <c r="K15">
-        <v>4.865822962046021</v>
+        <v>6244.583316778291</v>
       </c>
       <c r="L15">
-        <v>16.25</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>10.09727875</v>
+        <v>4.656592233358407</v>
       </c>
       <c r="N15">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O15">
-        <v>4409648.83348786</v>
+        <v>0.357</v>
       </c>
       <c r="P15">
-        <v>32.55322345784042</v>
+        <v>13500779.6754841</v>
       </c>
       <c r="Q15">
-        <v>0.02504957534554341</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>63.50409237060223</v>
+        <v>13500779.6754841</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3123,111 +4870,108 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>149</v>
+        <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>172</v>
+        <v>209</v>
       </c>
       <c r="D16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F16">
-        <v>38.69096670818421</v>
+        <v>187</v>
       </c>
       <c r="G16">
-        <v>650</v>
-      </c>
-      <c r="H16" t="s">
-        <v>84</v>
+        <v>116.196377</v>
+      </c>
+      <c r="H16">
+        <v>1.080009912685923</v>
       </c>
       <c r="I16">
-        <v>9.525</v>
-      </c>
-      <c r="J16" t="s">
-        <v>83</v>
+        <v>44.18022302115279</v>
+      </c>
+      <c r="J16">
+        <v>4.622434621652499</v>
       </c>
       <c r="K16">
-        <v>4.865822962046021</v>
+        <v>6198.777276328434</v>
       </c>
       <c r="L16">
-        <v>16.25</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>10.09727875</v>
+        <v>4.622434621652499</v>
       </c>
       <c r="N16">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O16">
-        <v>4412444.8307085</v>
+        <v>0.357</v>
       </c>
       <c r="P16">
-        <v>32.43543787099419</v>
+        <v>13450064.52346317</v>
       </c>
       <c r="Q16">
-        <v>0.02495851168164659</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>63.48497950660523</v>
+        <v>13450064.52346317</v>
       </c>
     </row>
     <row r="17" spans="1:18">
-      <c r="A17">
-        <v>2</v>
-      </c>
       <c r="B17" t="s">
-        <v>150</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>173</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F17">
-        <v>38.57494719534453</v>
+        <v>200</v>
       </c>
       <c r="G17">
-        <v>650</v>
-      </c>
-      <c r="H17" t="s">
-        <v>84</v>
+        <v>124.2742</v>
+      </c>
+      <c r="H17">
+        <v>1.079600891132993</v>
       </c>
       <c r="I17">
-        <v>9.525</v>
-      </c>
-      <c r="J17" t="s">
-        <v>83</v>
+        <v>43.85785592164184</v>
+      </c>
+      <c r="J17">
+        <v>4.588706388978171</v>
       </c>
       <c r="K17">
-        <v>4.865822962046021</v>
+        <v>6153.547041747506</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>15.534275</v>
+        <v>12.5</v>
       </c>
       <c r="N17">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O17">
-        <v>4153448.56481078</v>
+        <v>0.357</v>
       </c>
       <c r="P17">
-        <v>34.25080015762758</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.02639839106826037</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R17">
-        <v>65.33540422081342</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3235,55 +4979,55 @@
         <v>2</v>
       </c>
       <c r="B18" t="s">
-        <v>151</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="D18" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E18" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F18">
-        <v>38.38679376119101</v>
+        <v>225</v>
       </c>
       <c r="G18">
-        <v>650</v>
-      </c>
-      <c r="H18" t="s">
-        <v>84</v>
+        <v>139.808475</v>
+      </c>
+      <c r="H18">
+        <v>1.171513956684256</v>
       </c>
       <c r="I18">
-        <v>9.525</v>
-      </c>
-      <c r="J18" t="s">
-        <v>83</v>
+        <v>91.04760493108455</v>
+      </c>
+      <c r="J18">
+        <v>9.526018034143515</v>
       </c>
       <c r="K18">
-        <v>4.865822962046021</v>
+        <v>12774.58070414714</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>15.534275</v>
+        <v>9.526018034143515</v>
       </c>
       <c r="N18">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O18">
-        <v>4160710.188521888</v>
+        <v>0.357</v>
       </c>
       <c r="P18">
-        <v>34.02722096456097</v>
+        <v>20917706.65978424</v>
       </c>
       <c r="Q18">
-        <v>0.02622484045690823</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>65.28121255174439</v>
+        <v>20917706.65978424</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3291,55 +5035,55 @@
         <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>175</v>
+        <v>212</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="E19" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F19">
-        <v>38.20165108358196</v>
+        <v>250</v>
       </c>
       <c r="G19">
-        <v>650</v>
-      </c>
-      <c r="H19" t="s">
-        <v>84</v>
+        <v>155.34275</v>
+      </c>
+      <c r="H19">
+        <v>1.169469331334185</v>
       </c>
       <c r="I19">
-        <v>9.525</v>
-      </c>
-      <c r="J19" t="s">
-        <v>83</v>
+        <v>89.5906973086508</v>
+      </c>
+      <c r="J19">
+        <v>9.373586475994456</v>
       </c>
       <c r="K19">
-        <v>4.865822962046021</v>
+        <v>12570.16693603809</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>15.534275</v>
+        <v>9.373586475994456</v>
       </c>
       <c r="N19">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O19">
-        <v>4167810.768937777</v>
+        <v>0.357</v>
       </c>
       <c r="P19">
-        <v>33.80829267144698</v>
+        <v>20679894.58541565</v>
       </c>
       <c r="Q19">
-        <v>0.02605491927445856</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>65.22835774539517</v>
+        <v>20679894.58541565</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3347,111 +5091,108 @@
         <v>2</v>
       </c>
       <c r="B20" t="s">
-        <v>153</v>
+        <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E20" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F20">
-        <v>38.01943400289225</v>
+        <v>275</v>
       </c>
       <c r="G20">
-        <v>650</v>
-      </c>
-      <c r="H20" t="s">
-        <v>84</v>
+        <v>170.877025</v>
+      </c>
+      <c r="H20">
+        <v>1.167476939766664</v>
       </c>
       <c r="I20">
-        <v>9.525</v>
-      </c>
-      <c r="J20" t="s">
-        <v>83</v>
+        <v>88.17499850039677</v>
+      </c>
+      <c r="J20">
+        <v>9.225466463518005</v>
       </c>
       <c r="K20">
-        <v>4.865822962046021</v>
+        <v>12371.53503690691</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>15.534275</v>
+        <v>9.225466463518005</v>
       </c>
       <c r="N20">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O20">
-        <v>4174755.921982693</v>
+        <v>0.357</v>
       </c>
       <c r="P20">
-        <v>33.59385004013048</v>
+        <v>20449157.88384064</v>
       </c>
       <c r="Q20">
-        <v>0.02588849805763766</v>
+        <v>0</v>
       </c>
       <c r="R20">
-        <v>65.17678853185471</v>
+        <v>20449157.88384064</v>
       </c>
     </row>
     <row r="21" spans="1:18">
-      <c r="A21">
-        <v>3</v>
-      </c>
       <c r="B21" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="D21" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="E21" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="F21">
-        <v>37.84006085815943</v>
+        <v>300</v>
       </c>
       <c r="G21">
-        <v>650</v>
-      </c>
-      <c r="H21" t="s">
-        <v>84</v>
+        <v>186.4113</v>
+      </c>
+      <c r="H21">
+        <v>1.165534716993736</v>
       </c>
       <c r="I21">
-        <v>9.525</v>
-      </c>
-      <c r="J21" t="s">
-        <v>83</v>
+        <v>86.79881550050851</v>
+      </c>
+      <c r="J21">
+        <v>9.08148086296168</v>
       </c>
       <c r="K21">
-        <v>4.865822962046021</v>
+        <v>12178.44746684887</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.534275</v>
+        <v>12.5</v>
       </c>
       <c r="N21">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O21">
-        <v>4181550.994815283</v>
+        <v>0.357</v>
       </c>
       <c r="P21">
-        <v>33.38373610429525</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0.02572545384432878</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R21">
-        <v>65.12645631121418</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="22" spans="1:18">
@@ -3459,55 +5200,55 @@
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>178</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="E22" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F22">
-        <v>37.66345329134793</v>
+        <v>325</v>
       </c>
       <c r="G22">
-        <v>650</v>
-      </c>
-      <c r="H22" t="s">
-        <v>84</v>
+        <v>201.945575</v>
+      </c>
+      <c r="H22">
+        <v>1.163640708454631</v>
       </c>
       <c r="I22">
-        <v>9.525</v>
-      </c>
-      <c r="J22" t="s">
-        <v>83</v>
+        <v>85.46055001989554</v>
+      </c>
+      <c r="J22">
+        <v>8.941462450479104</v>
       </c>
       <c r="K22">
-        <v>4.865822962046021</v>
+        <v>11990.67997534149</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>15.534275</v>
+        <v>8.941462450479104</v>
       </c>
       <c r="N22">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O22">
-        <v>4188201.082442428</v>
+        <v>0.357</v>
       </c>
       <c r="P22">
-        <v>33.17780163045602</v>
+        <v>20007706.99482556</v>
       </c>
       <c r="Q22">
-        <v>0.02556566974897012</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>65.07731497644764</v>
+        <v>20007706.99482556</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -3515,55 +5256,55 @@
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>179</v>
+        <v>216</v>
       </c>
       <c r="D23" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E23" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F23">
-        <v>37.48953608141773</v>
+        <v>350</v>
       </c>
       <c r="G23">
-        <v>650</v>
-      </c>
-      <c r="H23" t="s">
-        <v>84</v>
+        <v>217.47985</v>
+      </c>
+      <c r="H23">
+        <v>1.161793062526125</v>
       </c>
       <c r="I23">
-        <v>9.525</v>
-      </c>
-      <c r="J23" t="s">
-        <v>83</v>
+        <v>84.15868406377371</v>
+      </c>
+      <c r="J23">
+        <v>8.805252403158905</v>
       </c>
       <c r="K23">
-        <v>4.865822962046021</v>
+        <v>11808.01957768415</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.534275</v>
+        <v>8.805252403158905</v>
       </c>
       <c r="N23">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O23">
-        <v>4194711.042476623</v>
+        <v>0.357</v>
       </c>
       <c r="P23">
-        <v>32.97590464044305</v>
+        <v>19796432.9672142</v>
       </c>
       <c r="Q23">
-        <v>0.02540903458623282</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>65.02932075493439</v>
+        <v>19796432.9672142</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -3571,1178 +5312,54 @@
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>180</v>
+        <v>217</v>
       </c>
       <c r="D24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="E24" t="s">
-        <v>201</v>
+        <v>232</v>
       </c>
       <c r="F24">
-        <v>37.318236972821</v>
+        <v>375</v>
       </c>
       <c r="G24">
-        <v>650</v>
-      </c>
-      <c r="H24" t="s">
-        <v>84</v>
+        <v>233.014125</v>
+      </c>
+      <c r="H24">
+        <v>1.159990023811786</v>
       </c>
       <c r="I24">
-        <v>9.525</v>
-      </c>
-      <c r="J24" t="s">
-        <v>83</v>
+        <v>82.89178262798556</v>
+      </c>
+      <c r="J24">
+        <v>8.672700581132009</v>
       </c>
       <c r="K24">
-        <v>4.865822962046021</v>
+        <v>11630.26493330965</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>15.534275</v>
+        <v>8.672700581132009</v>
       </c>
       <c r="N24">
-        <v>4865822.962046022</v>
+        <v>0.78</v>
       </c>
       <c r="O24">
-        <v>4201085.509443228</v>
+        <v>0.357</v>
       </c>
       <c r="P24">
-        <v>32.77790995134139</v>
+        <v>19591112.32266644</v>
       </c>
       <c r="Q24">
-        <v>0.02525544250874973</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>64.98243205770812</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F2">
-        <v>17.5</v>
-      </c>
-      <c r="G2">
-        <v>10.8739925</v>
-      </c>
-      <c r="H2">
-        <v>1.195741486428831</v>
-      </c>
-      <c r="I2">
-        <v>130.4650446242128</v>
-      </c>
-      <c r="J2">
-        <v>13.65013795647118</v>
-      </c>
-      <c r="K2">
-        <v>18305.10800238698</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>13.65013795647118</v>
-      </c>
-      <c r="N2">
-        <v>0.78</v>
-      </c>
-      <c r="O2">
-        <v>0.357</v>
-      </c>
-      <c r="P2">
-        <v>27490042.36334093</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>27490042.36334093</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" t="s">
-        <v>214</v>
-      </c>
-      <c r="F3">
-        <v>35</v>
-      </c>
-      <c r="G3">
-        <v>21.747985</v>
-      </c>
-      <c r="H3">
-        <v>1.193005085629614</v>
-      </c>
-      <c r="I3">
-        <v>128.057670379484</v>
-      </c>
-      <c r="J3">
-        <v>13.39826213296569</v>
-      </c>
-      <c r="K3">
-        <v>17967.33748554964</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>13.39826213296569</v>
-      </c>
-      <c r="N3">
-        <v>0.78</v>
-      </c>
-      <c r="O3">
-        <v>0.357</v>
-      </c>
-      <c r="P3">
-        <v>27081002.23331811</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>27081002.23331811</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" t="s">
-        <v>214</v>
-      </c>
-      <c r="F4">
-        <v>52.5</v>
-      </c>
-      <c r="G4">
-        <v>32.6219775</v>
-      </c>
-      <c r="H4">
-        <v>1.190355462304724</v>
-      </c>
-      <c r="I4">
-        <v>125.7323991555342</v>
-      </c>
-      <c r="J4">
-        <v>13.15497648442626</v>
-      </c>
-      <c r="K4">
-        <v>17641.0865651453</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>13.15497648442626</v>
-      </c>
-      <c r="N4">
-        <v>0.78</v>
-      </c>
-      <c r="O4">
-        <v>0.357</v>
-      </c>
-      <c r="P4">
-        <v>26686856.27188359</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>26686856.27188359</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="B5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" t="s">
-        <v>184</v>
-      </c>
-      <c r="D5" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" t="s">
-        <v>201</v>
-      </c>
-      <c r="F5">
-        <v>70</v>
-      </c>
-      <c r="G5">
-        <v>43.49597</v>
-      </c>
-      <c r="H5">
-        <v>1.187784866890749</v>
-      </c>
-      <c r="I5">
-        <v>123.4827312438415</v>
-      </c>
-      <c r="J5">
-        <v>12.91960096725763</v>
-      </c>
-      <c r="K5">
-        <v>17325.44328911183</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>12.91960096725763</v>
-      </c>
-      <c r="N5">
-        <v>0.78</v>
-      </c>
-      <c r="O5">
-        <v>0.357</v>
-      </c>
-      <c r="P5">
-        <v>9953691.026075777</v>
-      </c>
-      <c r="Q5">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="R5">
-        <v>26869716.71615482</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" t="s">
-        <v>185</v>
-      </c>
-      <c r="D6" t="s">
-        <v>164</v>
-      </c>
-      <c r="E6" t="s">
-        <v>214</v>
-      </c>
-      <c r="F6">
-        <v>86.25</v>
-      </c>
-      <c r="G6">
-        <v>53.59324875</v>
-      </c>
-      <c r="H6">
-        <v>1.168579427027694</v>
-      </c>
-      <c r="I6">
-        <v>111.0419056107456</v>
-      </c>
-      <c r="J6">
-        <v>11.61795739925593</v>
-      </c>
-      <c r="K6">
-        <v>15579.91323155019</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>11.61795739925593</v>
-      </c>
-      <c r="N6">
-        <v>0.78</v>
-      </c>
-      <c r="O6">
-        <v>0.357</v>
-      </c>
-      <c r="P6">
-        <v>24218180.10130474</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>24218180.10130474</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>186</v>
-      </c>
-      <c r="D7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" t="s">
-        <v>214</v>
-      </c>
-      <c r="F7">
-        <v>102.5</v>
-      </c>
-      <c r="G7">
-        <v>63.6905275</v>
-      </c>
-      <c r="H7">
-        <v>1.162690876001847</v>
-      </c>
-      <c r="I7">
-        <v>88.65838843740015</v>
-      </c>
-      <c r="J7">
-        <v>9.276041997722372</v>
-      </c>
-      <c r="K7">
-        <v>12439.35783978565</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>9.276041997722372</v>
-      </c>
-      <c r="N7">
-        <v>0.78</v>
-      </c>
-      <c r="O7">
-        <v>0.357</v>
-      </c>
-      <c r="P7">
-        <v>20527904.20547205</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>20527904.20547205</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F8">
-        <v>118.75</v>
-      </c>
-      <c r="G8">
-        <v>73.78780625</v>
-      </c>
-      <c r="H8">
-        <v>1.106349617035899</v>
-      </c>
-      <c r="I8">
-        <v>58.92395533173863</v>
-      </c>
-      <c r="J8">
-        <v>6.165023907636829</v>
-      </c>
-      <c r="K8">
-        <v>8267.42036061914</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>6.165023907636829</v>
-      </c>
-      <c r="N8">
-        <v>0.78</v>
-      </c>
-      <c r="O8">
-        <v>0.357</v>
-      </c>
-      <c r="P8">
-        <v>15758640.49772951</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>15758640.49772951</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s">
-        <v>107</v>
-      </c>
-      <c r="C9" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9">
-        <v>135</v>
-      </c>
-      <c r="G9">
-        <v>83.885085</v>
-      </c>
-      <c r="H9">
-        <v>1.105608458454796</v>
-      </c>
-      <c r="I9">
-        <v>58.348582899582</v>
-      </c>
-      <c r="J9">
-        <v>6.104824540841604</v>
-      </c>
-      <c r="K9">
-        <v>8186.691805759408</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>6.104824540841604</v>
-      </c>
-      <c r="N9">
-        <v>0.78</v>
-      </c>
-      <c r="O9">
-        <v>0.357</v>
-      </c>
-      <c r="P9">
-        <v>15667849.33794817</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>15667849.33794817</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E10" t="s">
-        <v>214</v>
-      </c>
-      <c r="F10">
-        <v>151.25</v>
-      </c>
-      <c r="G10">
-        <v>93.98236375</v>
-      </c>
-      <c r="H10">
-        <v>1.104878137835557</v>
-      </c>
-      <c r="I10">
-        <v>57.78292313656823</v>
-      </c>
-      <c r="J10">
-        <v>6.045641379376378</v>
-      </c>
-      <c r="K10">
-        <v>8107.326002571311</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>6.045641379376378</v>
-      </c>
-      <c r="N10">
-        <v>0.78</v>
-      </c>
-      <c r="O10">
-        <v>0.357</v>
-      </c>
-      <c r="P10">
-        <v>15578646.15611999</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>15578646.15611999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" t="s">
-        <v>190</v>
-      </c>
-      <c r="D11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E11" t="s">
-        <v>214</v>
-      </c>
-      <c r="F11">
-        <v>167.5</v>
-      </c>
-      <c r="G11">
-        <v>104.0796425</v>
-      </c>
-      <c r="H11">
-        <v>1.104158431633768</v>
-      </c>
-      <c r="I11">
-        <v>57.22675150876469</v>
-      </c>
-      <c r="J11">
-        <v>5.98745093097803</v>
-      </c>
-      <c r="K11">
-        <v>8029.291447460158</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>5.98745093097803</v>
-      </c>
-      <c r="N11">
-        <v>0.78</v>
-      </c>
-      <c r="O11">
-        <v>0.357</v>
-      </c>
-      <c r="P11">
-        <v>15490992.74854892</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>15490992.74854892</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>191</v>
-      </c>
-      <c r="D12" t="s">
-        <v>172</v>
-      </c>
-      <c r="E12" t="s">
-        <v>214</v>
-      </c>
-      <c r="F12">
-        <v>183.75</v>
-      </c>
-      <c r="G12">
-        <v>114.17692125</v>
-      </c>
-      <c r="H12">
-        <v>1.103449083086588</v>
-      </c>
-      <c r="I12">
-        <v>56.67982941399297</v>
-      </c>
-      <c r="J12">
-        <v>5.930228231468136</v>
-      </c>
-      <c r="K12">
-        <v>7952.554662963399</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>5.930228231468136</v>
-      </c>
-      <c r="N12">
-        <v>0.78</v>
-      </c>
-      <c r="O12">
-        <v>0.357</v>
-      </c>
-      <c r="P12">
-        <v>15404848.82911965</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>15404848.82911965</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="B13" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>192</v>
-      </c>
-      <c r="D13" t="s">
-        <v>173</v>
-      </c>
-      <c r="E13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F13">
-        <v>200</v>
-      </c>
-      <c r="G13">
-        <v>124.2742</v>
-      </c>
-      <c r="H13">
-        <v>1.102749869682727</v>
-      </c>
-      <c r="I13">
-        <v>56.1419397782742</v>
-      </c>
-      <c r="J13">
-        <v>5.873950569094544</v>
-      </c>
-      <c r="K13">
-        <v>7877.085192167165</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>12.5</v>
-      </c>
-      <c r="N13">
-        <v>0.78</v>
-      </c>
-      <c r="O13">
-        <v>0.357</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="R13">
-        <v>16916025.69007904</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" t="s">
-        <v>193</v>
-      </c>
-      <c r="D14" t="s">
-        <v>174</v>
-      </c>
-      <c r="E14" t="s">
-        <v>214</v>
-      </c>
-      <c r="F14">
-        <v>225</v>
-      </c>
-      <c r="G14">
-        <v>139.808475</v>
-      </c>
-      <c r="H14">
-        <v>1.171513956684256</v>
-      </c>
-      <c r="I14">
-        <v>91.04760493108455</v>
-      </c>
-      <c r="J14">
-        <v>9.526018034143515</v>
-      </c>
-      <c r="K14">
-        <v>12774.58070414714</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>9.526018034143515</v>
-      </c>
-      <c r="N14">
-        <v>0.78</v>
-      </c>
-      <c r="O14">
-        <v>0.357</v>
-      </c>
-      <c r="P14">
-        <v>20917706.65978424</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>20917706.65978424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" t="s">
-        <v>194</v>
-      </c>
-      <c r="D15" t="s">
-        <v>175</v>
-      </c>
-      <c r="E15" t="s">
-        <v>214</v>
-      </c>
-      <c r="F15">
-        <v>250</v>
-      </c>
-      <c r="G15">
-        <v>155.34275</v>
-      </c>
-      <c r="H15">
-        <v>1.169469331334185</v>
-      </c>
-      <c r="I15">
-        <v>89.5906973086508</v>
-      </c>
-      <c r="J15">
-        <v>9.373586475994456</v>
-      </c>
-      <c r="K15">
-        <v>12570.16693603809</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>9.373586475994456</v>
-      </c>
-      <c r="N15">
-        <v>0.78</v>
-      </c>
-      <c r="O15">
-        <v>0.357</v>
-      </c>
-      <c r="P15">
-        <v>20679894.58541565</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>20679894.58541565</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" t="s">
-        <v>195</v>
-      </c>
-      <c r="D16" t="s">
-        <v>176</v>
-      </c>
-      <c r="E16" t="s">
-        <v>214</v>
-      </c>
-      <c r="F16">
-        <v>275</v>
-      </c>
-      <c r="G16">
-        <v>170.877025</v>
-      </c>
-      <c r="H16">
-        <v>1.167476939766664</v>
-      </c>
-      <c r="I16">
-        <v>88.17499850039677</v>
-      </c>
-      <c r="J16">
-        <v>9.225466463518005</v>
-      </c>
-      <c r="K16">
-        <v>12371.53503690691</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>9.225466463518005</v>
-      </c>
-      <c r="N16">
-        <v>0.78</v>
-      </c>
-      <c r="O16">
-        <v>0.357</v>
-      </c>
-      <c r="P16">
-        <v>20449157.88384064</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>20449157.88384064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="B17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C17" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E17" t="s">
-        <v>201</v>
-      </c>
-      <c r="F17">
-        <v>300</v>
-      </c>
-      <c r="G17">
-        <v>186.4113</v>
-      </c>
-      <c r="H17">
-        <v>1.165534716993736</v>
-      </c>
-      <c r="I17">
-        <v>86.79881550050851</v>
-      </c>
-      <c r="J17">
-        <v>9.08148086296168</v>
-      </c>
-      <c r="K17">
-        <v>12178.44746684887</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>12.5</v>
-      </c>
-      <c r="N17">
-        <v>0.78</v>
-      </c>
-      <c r="O17">
-        <v>0.357</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>16916025.69007904</v>
-      </c>
-      <c r="R17">
-        <v>16916025.69007904</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18">
-        <v>3</v>
-      </c>
-      <c r="B18" t="s">
-        <v>116</v>
-      </c>
-      <c r="C18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D18" t="s">
-        <v>178</v>
-      </c>
-      <c r="E18" t="s">
-        <v>214</v>
-      </c>
-      <c r="F18">
-        <v>325</v>
-      </c>
-      <c r="G18">
-        <v>201.945575</v>
-      </c>
-      <c r="H18">
-        <v>1.163640708454631</v>
-      </c>
-      <c r="I18">
-        <v>85.46055001989554</v>
-      </c>
-      <c r="J18">
-        <v>8.941462450479104</v>
-      </c>
-      <c r="K18">
-        <v>11990.67997534149</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>8.941462450479104</v>
-      </c>
-      <c r="N18">
-        <v>0.78</v>
-      </c>
-      <c r="O18">
-        <v>0.357</v>
-      </c>
-      <c r="P18">
-        <v>20007706.99482556</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>20007706.99482556</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
-      <c r="A19">
-        <v>3</v>
-      </c>
-      <c r="B19" t="s">
-        <v>117</v>
-      </c>
-      <c r="C19" t="s">
-        <v>198</v>
-      </c>
-      <c r="D19" t="s">
-        <v>179</v>
-      </c>
-      <c r="E19" t="s">
-        <v>214</v>
-      </c>
-      <c r="F19">
-        <v>350</v>
-      </c>
-      <c r="G19">
-        <v>217.47985</v>
-      </c>
-      <c r="H19">
-        <v>1.161793062526125</v>
-      </c>
-      <c r="I19">
-        <v>84.15868406377371</v>
-      </c>
-      <c r="J19">
-        <v>8.805252403158905</v>
-      </c>
-      <c r="K19">
-        <v>11808.01957768415</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>8.805252403158905</v>
-      </c>
-      <c r="N19">
-        <v>0.78</v>
-      </c>
-      <c r="O19">
-        <v>0.357</v>
-      </c>
-      <c r="P19">
-        <v>19796432.9672142</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>19796432.9672142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
-      <c r="A20">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>118</v>
-      </c>
-      <c r="C20" t="s">
-        <v>199</v>
-      </c>
-      <c r="D20" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" t="s">
-        <v>214</v>
-      </c>
-      <c r="F20">
-        <v>375</v>
-      </c>
-      <c r="G20">
-        <v>233.014125</v>
-      </c>
-      <c r="H20">
-        <v>1.159990023811786</v>
-      </c>
-      <c r="I20">
-        <v>82.89178262798556</v>
-      </c>
-      <c r="J20">
-        <v>8.672700581132009</v>
-      </c>
-      <c r="K20">
-        <v>11630.26493330965</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>8.672700581132009</v>
-      </c>
-      <c r="N20">
-        <v>0.78</v>
-      </c>
-      <c r="O20">
-        <v>0.357</v>
-      </c>
-      <c r="P20">
-        <v>19591112.32266644</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
         <v>19591112.32266644</v>
       </c>
     </row>
@@ -4753,7 +5370,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4761,15 +5378,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B2">
         <v>4865822.962046022</v>
@@ -4777,15 +5394,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B3">
-        <v>4069293.419414723</v>
+        <v>4352017.909921894</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B4">
         <v>4865822.962046022</v>
@@ -4793,15 +5410,15 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="B5">
-        <v>4078627.174902661</v>
+        <v>4355635.240885197</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B6">
         <v>4865822.962046022</v>
@@ -4809,39 +5426,39 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="B7">
-        <v>4656137.532556644</v>
+        <v>4359193.289164404</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B8">
-        <v>4087705.829168867</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B9">
-        <v>4865822.962046022</v>
+        <v>4656524.152573038</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="B10">
-        <v>4096552.412545236</v>
+        <v>4362698.168959313</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="B11">
         <v>4865822.962046022</v>
@@ -4849,15 +5466,15 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="B12">
-        <v>4163878.679964736</v>
+        <v>4366151.308787311</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B13">
         <v>4865822.962046022</v>
@@ -4865,143 +5482,143 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="B14">
-        <v>4216834.383190117</v>
+        <v>4369554.288709993</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="B15">
-        <v>4184967.012709482</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>201</v>
       </c>
       <c r="B16">
-        <v>4865822.962046022</v>
+        <v>4313178.083723024</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="B17">
-        <v>4398087.988752052</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>202</v>
       </c>
       <c r="B18">
-        <v>4865822.962046022</v>
+        <v>4317394.199659195</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="B19">
-        <v>4401036.30253202</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B20">
-        <v>4865822.962046022</v>
+        <v>4642952.014375147</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="B21">
-        <v>4441091.71587808</v>
+        <v>4422028.727705522</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B22">
-        <v>4403945.372272558</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="B23">
-        <v>4865822.962046022</v>
+        <v>4496553.245275066</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B24">
-        <v>4406815.926629577</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="B25">
-        <v>4865822.962046022</v>
+        <v>4498348.567916081</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="B26">
-        <v>4409648.83348786</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="B27">
-        <v>4865822.962046022</v>
+        <v>4500125.650714075</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B28">
-        <v>4412444.8307085</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B29">
-        <v>4865822.962046022</v>
+        <v>4811535.140028085</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="B30">
-        <v>4153448.56481078</v>
+        <v>4501884.8018276</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B31">
         <v>4865822.962046022</v>
@@ -5009,15 +5626,15 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="B32">
-        <v>4160710.188521888</v>
+        <v>4503626.230482307</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B33">
         <v>4865822.962046022</v>
@@ -5025,15 +5642,15 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="B34">
-        <v>4167810.768937777</v>
+        <v>4505350.279559007</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B35">
         <v>4865822.962046022</v>
@@ -5041,15 +5658,15 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B36">
-        <v>4174755.921982693</v>
+        <v>4507057.193088789</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="B37">
         <v>4865822.962046022</v>
@@ -5057,15 +5674,15 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="B38">
-        <v>4181550.994815283</v>
+        <v>4153448.564810779</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B39">
         <v>4865822.962046022</v>
@@ -5073,15 +5690,15 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="B40">
-        <v>4188201.082442428</v>
+        <v>4160710.188521888</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="B41">
         <v>4865822.962046022</v>
@@ -5089,15 +5706,15 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B42">
-        <v>4194711.042476623</v>
+        <v>4167810.768937777</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B43">
         <v>4865822.962046022</v>
@@ -5105,9 +5722,73 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="B44">
+        <v>4174755.921982693</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>191</v>
+      </c>
+      <c r="B45">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>215</v>
+      </c>
+      <c r="B46">
+        <v>4181550.994815283</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>192</v>
+      </c>
+      <c r="B47">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>216</v>
+      </c>
+      <c r="B48">
+        <v>4188201.082442428</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>193</v>
+      </c>
+      <c r="B49">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>217</v>
+      </c>
+      <c r="B50">
+        <v>4194711.042476623</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>194</v>
+      </c>
+      <c r="B51">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>218</v>
+      </c>
+      <c r="B52">
         <v>4201085.509443228</v>
       </c>
     </row>
@@ -5126,36 +5807,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>221</v>
+        <v>239</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112660272917047</v>
+        <v>8.112660272798465</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -5164,15 +5845,15 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520400016819</v>
+        <v>1150.520400000002</v>
       </c>
       <c r="G2">
-        <v>1.46187174166987E-09</v>
+        <v>1.75168862461191E-13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
@@ -5195,7 +5876,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>

--- a/examples/wangetal2018/out/ResultFiles/AC_1.0_nfc.xlsx
+++ b/examples/wangetal2018/out/ResultFiles/AC_1.0_nfc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="279">
   <si>
     <t xml:space="preserve">
 ---------DISCLAIMER---------
@@ -378,6 +378,9 @@
     <t>C_1_8</t>
   </si>
   <si>
+    <t>C_1_9</t>
+  </si>
+  <si>
     <t>CS2</t>
   </si>
   <si>
@@ -450,10 +453,16 @@
     <t>Erosional velocity (m/s)</t>
   </si>
   <si>
-    <t>PI01_pre_C_0_0</t>
-  </si>
-  <si>
-    <t>PI01_pre_C_0_1</t>
+    <t>PI01_0_pre_C_0_0</t>
+  </si>
+  <si>
+    <t>PI01_0_remaining</t>
+  </si>
+  <si>
+    <t>PI01_1_pre_C_0_1</t>
+  </si>
+  <si>
+    <t>PI01_1_remaining</t>
   </si>
   <si>
     <t>PI01_pre_C_0_2</t>
@@ -462,7 +471,10 @@
     <t>PI01_remaining</t>
   </si>
   <si>
-    <t>PI02_pre_C_0_3</t>
+    <t>PI02_0_pre_C_0_3</t>
+  </si>
+  <si>
+    <t>PI02_0_remaining</t>
   </si>
   <si>
     <t>PI02_pre_C_0_4</t>
@@ -471,7 +483,10 @@
     <t>PI02_remaining</t>
   </si>
   <si>
-    <t>PI03_pre_C_1_0</t>
+    <t>PI03_0_pre_C_1_0</t>
+  </si>
+  <si>
+    <t>PI03_0_remaining</t>
   </si>
   <si>
     <t>PI03_pre_C_1_1</t>
@@ -480,13 +495,19 @@
     <t>PI03_remaining</t>
   </si>
   <si>
-    <t>PI04_pre_C_1_2</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_3</t>
-  </si>
-  <si>
-    <t>PI04_pre_C_1_4</t>
+    <t>PI04_0_pre_C_1_2</t>
+  </si>
+  <si>
+    <t>PI04_0_pre_C_1_3</t>
+  </si>
+  <si>
+    <t>PI04_0_remaining</t>
+  </si>
+  <si>
+    <t>PI04_1_pre_C_1_4</t>
+  </si>
+  <si>
+    <t>PI04_1_remaining</t>
   </si>
   <si>
     <t>PI04_pre_C_1_5</t>
@@ -495,40 +516,73 @@
     <t>PI04_remaining</t>
   </si>
   <si>
-    <t>PI05_pre_C_1_6</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_7</t>
-  </si>
-  <si>
-    <t>PI05_pre_C_1_8</t>
+    <t>PI05_0_pre_C_1_6</t>
+  </si>
+  <si>
+    <t>PI05_0_pre_C_1_7</t>
+  </si>
+  <si>
+    <t>PI05_0_remaining</t>
+  </si>
+  <si>
+    <t>PI05_1_pre_C_1_8</t>
+  </si>
+  <si>
+    <t>PI05_1_remaining</t>
+  </si>
+  <si>
+    <t>PI05_pre_C_1_9</t>
   </si>
   <si>
     <t>PI05_remaining</t>
   </si>
   <si>
-    <t>PI06_pre_C_2_0</t>
-  </si>
-  <si>
-    <t>PI06_remaining</t>
-  </si>
-  <si>
-    <t>PI07_pre_C_2_2</t>
-  </si>
-  <si>
-    <t>PI07_remaining</t>
-  </si>
-  <si>
-    <t>PI08_pre_C_3_0</t>
-  </si>
-  <si>
-    <t>PI08_remaining</t>
-  </si>
-  <si>
-    <t>PI09_pre_C_3_2</t>
-  </si>
-  <si>
-    <t>PI09_remaining</t>
+    <t>PI06_0</t>
+  </si>
+  <si>
+    <t>PI06_1_pre_C_2_0</t>
+  </si>
+  <si>
+    <t>PI06_1_remaining</t>
+  </si>
+  <si>
+    <t>PI06</t>
+  </si>
+  <si>
+    <t>PI07_0_remaining</t>
+  </si>
+  <si>
+    <t>PI07_1_pre_C_2_2</t>
+  </si>
+  <si>
+    <t>PI07_1_remaining</t>
+  </si>
+  <si>
+    <t>PI07</t>
+  </si>
+  <si>
+    <t>PI08_0</t>
+  </si>
+  <si>
+    <t>PI08_1_pre_C_3_0</t>
+  </si>
+  <si>
+    <t>PI08_1_remaining</t>
+  </si>
+  <si>
+    <t>PI08</t>
+  </si>
+  <si>
+    <t>PI09_0_remaining</t>
+  </si>
+  <si>
+    <t>PI09_1_pre_C_3_2</t>
+  </si>
+  <si>
+    <t>PI09_1_remaining</t>
+  </si>
+  <si>
+    <t>PI09</t>
   </si>
   <si>
     <t>N01</t>
@@ -537,9 +591,15 @@
     <t>N_post_C_0_0</t>
   </si>
   <si>
+    <t>N01_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_1</t>
   </si>
   <si>
+    <t>N01_1</t>
+  </si>
+  <si>
     <t>N_post_C_0_2</t>
   </si>
   <si>
@@ -549,6 +609,9 @@
     <t>N_post_C_0_3</t>
   </si>
   <si>
+    <t>N02_0</t>
+  </si>
+  <si>
     <t>N_post_C_0_4</t>
   </si>
   <si>
@@ -558,6 +621,9 @@
     <t>N_post_C_1_0</t>
   </si>
   <si>
+    <t>N03_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_1</t>
   </si>
   <si>
@@ -570,9 +636,15 @@
     <t>N_post_C_1_3</t>
   </si>
   <si>
+    <t>N04_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_4</t>
   </si>
   <si>
+    <t>N04_1</t>
+  </si>
+  <si>
     <t>N_post_C_1_5</t>
   </si>
   <si>
@@ -585,33 +657,66 @@
     <t>N_post_C_1_7</t>
   </si>
   <si>
+    <t>N05_0</t>
+  </si>
+  <si>
     <t>N_post_C_1_8</t>
   </si>
   <si>
+    <t>N05_1</t>
+  </si>
+  <si>
+    <t>N_post_C_1_9</t>
+  </si>
+  <si>
     <t>N06_C</t>
   </si>
   <si>
+    <t>N06_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_2_0</t>
   </si>
   <si>
+    <t>N06_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_2_1</t>
   </si>
   <si>
+    <t>N07_0</t>
+  </si>
+  <si>
     <t>N_post_C_2_2</t>
   </si>
   <si>
+    <t>N07_1</t>
+  </si>
+  <si>
     <t>N08_C</t>
   </si>
   <si>
+    <t>N08_C_0</t>
+  </si>
+  <si>
     <t>N_post_C_3_0</t>
   </si>
   <si>
+    <t>N08_C_1</t>
+  </si>
+  <si>
     <t>N_post_C_3_1</t>
   </si>
   <si>
+    <t>N09_0</t>
+  </si>
+  <si>
     <t>N_post_C_3_2</t>
   </si>
   <si>
+    <t>N09_1</t>
+  </si>
+  <si>
     <t>N_pre_C_0_0</t>
   </si>
   <si>
@@ -655,6 +760,9 @@
   </si>
   <si>
     <t>N_pre_C_1_8</t>
+  </si>
+  <si>
+    <t>N_pre_C_1_9</t>
   </si>
   <si>
     <t>N06</t>
@@ -1353,7 +1461,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1483,7 @@
         <v>38</v>
       </c>
       <c r="B2">
-        <v>2.885724325811419</v>
+        <v>3.031968251816166</v>
       </c>
       <c r="C2" t="s">
         <v>70</v>
@@ -1397,7 +1505,7 @@
         <v>40</v>
       </c>
       <c r="B4">
-        <v>0.2574602776426783</v>
+        <v>0.2716576612210982</v>
       </c>
       <c r="C4" t="s">
         <v>70</v>
@@ -1408,7 +1516,7 @@
         <v>41</v>
       </c>
       <c r="B5">
-        <v>0.03701204438223286</v>
+        <v>0.03706561774991999</v>
       </c>
       <c r="C5" t="s">
         <v>70</v>
@@ -1430,7 +1538,7 @@
         <v>43</v>
       </c>
       <c r="B7">
-        <v>0.007648296227682133</v>
+        <v>0.007659366812753149</v>
       </c>
       <c r="C7" t="s">
         <v>70</v>
@@ -1441,7 +1549,7 @@
         <v>44</v>
       </c>
       <c r="B8">
-        <v>0.01813266515700315</v>
+        <v>0.01815891142234239</v>
       </c>
       <c r="C8" t="s">
         <v>70</v>
@@ -1474,7 +1582,7 @@
         <v>47</v>
       </c>
       <c r="B11">
-        <v>2.416866796912055</v>
+        <v>2.542702532600868</v>
       </c>
       <c r="C11" t="s">
         <v>70</v>
@@ -1518,7 +1626,7 @@
         <v>51</v>
       </c>
       <c r="B15">
-        <v>0.02096916580351466</v>
+        <v>0.02198232010707952</v>
       </c>
       <c r="C15" t="s">
         <v>70</v>
@@ -1529,7 +1637,7 @@
         <v>52</v>
       </c>
       <c r="B16">
-        <v>0.09515874276891274</v>
+        <v>0.0994722274144087</v>
       </c>
       <c r="C16" t="s">
         <v>70</v>
@@ -1540,7 +1648,7 @@
         <v>53</v>
       </c>
       <c r="B17">
-        <v>0.01545832519535709</v>
+        <v>0.01625160276571159</v>
       </c>
       <c r="C17" t="s">
         <v>70</v>
@@ -1628,7 +1736,7 @@
         <v>60</v>
       </c>
       <c r="B25">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1636,7 +1744,7 @@
         <v>61</v>
       </c>
       <c r="B26">
-        <v>198269.1390480743</v>
+        <v>209115.6781418993</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -1647,7 +1755,7 @@
         <v>62</v>
       </c>
       <c r="B27">
-        <v>38889.04607142742</v>
+        <v>40913.82945166445</v>
       </c>
       <c r="C27" t="s">
         <v>72</v>
@@ -1658,7 +1766,7 @@
         <v>62</v>
       </c>
       <c r="B28">
-        <v>1620.376919642809</v>
+        <v>1704.742893819352</v>
       </c>
       <c r="C28" t="s">
         <v>73</v>
@@ -1691,7 +1799,7 @@
         <v>65</v>
       </c>
       <c r="B31">
-        <v>353009789.9322541</v>
+        <v>371937789.3923923</v>
       </c>
       <c r="C31" t="s">
         <v>78</v>
@@ -1765,7 +1873,7 @@
         <v>650</v>
       </c>
       <c r="B41">
-        <v>400</v>
+        <v>400.0000000000002</v>
       </c>
       <c r="C41" t="s">
         <v>85</v>
@@ -1841,22 +1949,22 @@
         <v>102</v>
       </c>
       <c r="B52">
-        <v>8.459329574762013</v>
+        <v>9.018117653923717</v>
       </c>
       <c r="C52">
         <v>0</v>
       </c>
       <c r="D52">
-        <v>11344.13014634735</v>
+        <v>12093.47613626478</v>
       </c>
       <c r="E52">
-        <v>19261182.41313111</v>
+        <v>20126733.96341903</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>80.8524290363702</v>
+        <v>86.19320375350401</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -1867,22 +1975,22 @@
         <v>103</v>
       </c>
       <c r="B53">
-        <v>8.366999052935707</v>
+        <v>8.914473018394579</v>
       </c>
       <c r="C53">
         <v>0</v>
       </c>
       <c r="D53">
-        <v>11220.31306996784</v>
+        <v>11954.4866071275</v>
       </c>
       <c r="E53">
-        <v>19118635.35200846</v>
+        <v>19965820.86134986</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>79.9699540248605</v>
+        <v>85.20259090823538</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -1893,22 +2001,22 @@
         <v>104</v>
       </c>
       <c r="B54">
-        <v>8.276521182893301</v>
+        <v>8.812733915186122</v>
       </c>
       <c r="C54">
         <v>0</v>
       </c>
       <c r="D54">
-        <v>11098.98043668357</v>
+        <v>11818.05243494289</v>
       </c>
       <c r="E54">
-        <v>18979078.16302378</v>
+        <v>19808029.91843414</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>79.10518625546297</v>
+        <v>84.23019072572833</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -1919,22 +2027,22 @@
         <v>105</v>
       </c>
       <c r="B55">
-        <v>8.187751992086088</v>
+        <v>8.712833699068685</v>
       </c>
       <c r="C55">
         <v>0</v>
       </c>
       <c r="D55">
-        <v>10979.93917642729</v>
+        <v>11684.08424712509</v>
       </c>
       <c r="E55">
-        <v>18842281.1978186</v>
+        <v>19653248.81501039</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>78.25674966992443</v>
+        <v>83.27536622539786</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -1945,22 +2053,22 @@
         <v>106</v>
       </c>
       <c r="B56">
-        <v>8.100640644746926</v>
+        <v>8.614673592473483</v>
       </c>
       <c r="C56">
         <v>0</v>
       </c>
       <c r="D56">
-        <v>10863.12111741852</v>
+        <v>11552.44958097879</v>
       </c>
       <c r="E56">
-        <v>18708159.09008107</v>
+        <v>19501316.10176986</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>77.42415839105819</v>
+        <v>82.33717331276218</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -1971,7 +2079,7 @@
         <v>107</v>
       </c>
       <c r="B57">
-        <v>8.015135730303786</v>
+        <v>8.517956555013701</v>
       </c>
       <c r="C57">
         <v>12.5</v>
@@ -1986,7 +2094,7 @@
         <v>16916025.69007904</v>
       </c>
       <c r="G57">
-        <v>76.60692104781761</v>
+        <v>81.4127729405205</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -1997,22 +2105,22 @@
         <v>108</v>
       </c>
       <c r="B58">
-        <v>8.962706032243027</v>
+        <v>8.546174830209404</v>
       </c>
       <c r="C58">
         <v>0</v>
       </c>
       <c r="D58">
-        <v>12019.16804335854</v>
+        <v>11460.59137080741</v>
       </c>
       <c r="E58">
-        <v>20040683.90933125</v>
+        <v>19395382.82052588</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>85.66359154604318</v>
+        <v>81.6824770669085</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2023,22 +2131,22 @@
         <v>109</v>
       </c>
       <c r="B59">
-        <v>8.856431856338219</v>
+        <v>8.451132665490242</v>
       </c>
       <c r="C59">
         <v>0</v>
       </c>
       <c r="D59">
-        <v>11876.65224798668</v>
+        <v>11333.13792707572</v>
       </c>
       <c r="E59">
-        <v>19875782.80006103</v>
+        <v>19248521.98146494</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>84.64784612676344</v>
+        <v>80.77408476341613</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2049,22 +2157,22 @@
         <v>110</v>
       </c>
       <c r="B60">
-        <v>5.838796077492993</v>
+        <v>6.145082573697146</v>
       </c>
       <c r="C60">
         <v>0</v>
       </c>
       <c r="D60">
-        <v>7829.942315839653</v>
+        <v>8240.678632979347</v>
       </c>
       <c r="E60">
-        <v>15267311.98016097</v>
+        <v>15728559.19260539</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>55.80594080667674</v>
+        <v>58.73336040657352</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2075,22 +2183,22 @@
         <v>111</v>
       </c>
       <c r="B61">
-        <v>4.797677006788207</v>
+        <v>4.569071649889176</v>
       </c>
       <c r="C61">
         <v>0</v>
       </c>
       <c r="D61">
-        <v>6433.780819643121</v>
+        <v>6127.216463934383</v>
       </c>
       <c r="E61">
-        <v>13710447.5285542</v>
+        <v>13370871.01226343</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>45.8551515581164</v>
+        <v>43.6701913632616</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2101,22 +2209,22 @@
         <v>112</v>
       </c>
       <c r="B62">
-        <v>4.761721121586729</v>
+        <v>4.536318042350857</v>
       </c>
       <c r="C62">
         <v>0</v>
       </c>
       <c r="D62">
-        <v>6385.563258470235</v>
+        <v>6083.293221153346</v>
       </c>
       <c r="E62">
-        <v>13656983.41707673</v>
+        <v>13322285.00423805</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>45.51149304109094</v>
+        <v>43.35713951845845</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2127,22 +2235,22 @@
         <v>113</v>
       </c>
       <c r="B63">
-        <v>4.72622731115287</v>
+        <v>4.503945058671606</v>
       </c>
       <c r="C63">
         <v>0</v>
       </c>
       <c r="D63">
-        <v>6337.965348802222</v>
+        <v>6039.880402579797</v>
       </c>
       <c r="E63">
-        <v>13604226.25292682</v>
+        <v>13274280.12597966</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>45.17225093402187</v>
+        <v>43.04772559357354</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2153,22 +2261,22 @@
         <v>114</v>
       </c>
       <c r="B64">
-        <v>4.691186791095684</v>
+        <v>4.472003738676076</v>
       </c>
       <c r="C64">
         <v>0</v>
       </c>
       <c r="D64">
-        <v>6290.975310595134</v>
+        <v>5997.046453639391</v>
       </c>
       <c r="E64">
-        <v>13552162.21538609</v>
+        <v>13226931.44501329</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>44.83734127761439</v>
+        <v>42.74243741613079</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2179,22 +2287,22 @@
         <v>115</v>
       </c>
       <c r="B65">
-        <v>4.656592233358407</v>
+        <v>4.440386991847258</v>
       </c>
       <c r="C65">
         <v>0</v>
       </c>
       <c r="D65">
-        <v>6244.583316778291</v>
+        <v>5954.64776380701</v>
       </c>
       <c r="E65">
-        <v>13500779.6754841</v>
+        <v>13180079.64569585</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>44.50669403189853</v>
+        <v>42.44025143830053</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2205,22 +2313,22 @@
         <v>116</v>
       </c>
       <c r="B66">
-        <v>4.622434621652499</v>
+        <v>4.409153649591002</v>
       </c>
       <c r="C66">
         <v>0</v>
       </c>
       <c r="D66">
-        <v>6198.777276328434</v>
+        <v>5912.763227174526</v>
       </c>
       <c r="E66">
-        <v>13450064.52346317</v>
+        <v>13133811.38246208</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>44.18022302115279</v>
+        <v>42.14172995784224</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2231,22 +2339,22 @@
         <v>117</v>
       </c>
       <c r="B67">
-        <v>4.588706388978171</v>
+        <v>4.378288825111254</v>
       </c>
       <c r="C67">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>5871.372880250693</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>13088104.0502434</v>
       </c>
       <c r="F67">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>43.85785592164184</v>
+        <v>41.84673069000261</v>
       </c>
       <c r="H67">
         <v>0</v>
@@ -2257,22 +2365,22 @@
         <v>118</v>
       </c>
       <c r="B68">
-        <v>9.526018034143515</v>
+        <v>4.34780375763793</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D68">
-        <v>12774.58070414714</v>
+        <v>0</v>
       </c>
       <c r="E68">
-        <v>20917706.65978424</v>
+        <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G68">
-        <v>91.04760493108455</v>
+        <v>41.5553610568925</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2283,22 +2391,22 @@
         <v>119</v>
       </c>
       <c r="B69">
-        <v>9.373586475994456</v>
+        <v>10.06638495203542</v>
       </c>
       <c r="C69">
         <v>0</v>
       </c>
       <c r="D69">
-        <v>12570.16693603809</v>
+        <v>13499.22354837854</v>
       </c>
       <c r="E69">
-        <v>20679894.58541565</v>
+        <v>21763679.27687195</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>89.5906973086508</v>
+        <v>96.2123142022311</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2309,22 +2417,22 @@
         <v>120</v>
       </c>
       <c r="B70">
-        <v>9.225466463518005</v>
+        <v>9.892246225099244</v>
       </c>
       <c r="C70">
         <v>0</v>
       </c>
       <c r="D70">
-        <v>12371.53503690691</v>
+        <v>13265.70003278259</v>
       </c>
       <c r="E70">
-        <v>20449157.88384064</v>
+        <v>21490556.29018191</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>88.17499850039677</v>
+        <v>94.54793418988392</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2335,22 +2443,22 @@
         <v>121</v>
       </c>
       <c r="B71">
-        <v>9.08148086296168</v>
+        <v>9.722514965356615</v>
       </c>
       <c r="C71">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>13038.08701884253</v>
       </c>
       <c r="E71">
-        <v>0</v>
+        <v>21224803.40740003</v>
       </c>
       <c r="F71">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>86.79881550050851</v>
+        <v>92.92567978871516</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2361,22 +2469,22 @@
         <v>122</v>
       </c>
       <c r="B72">
-        <v>8.941462450479104</v>
+        <v>9.558227757851759</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="D72">
-        <v>11990.67997534149</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>20007706.99482556</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="G72">
-        <v>85.46055001989554</v>
+        <v>91.35545845273612</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2387,22 +2495,22 @@
         <v>123</v>
       </c>
       <c r="B73">
-        <v>8.805252403158905</v>
+        <v>9.398028835051212</v>
       </c>
       <c r="C73">
         <v>0</v>
       </c>
       <c r="D73">
-        <v>11808.01957768415</v>
+        <v>12602.94462838038</v>
       </c>
       <c r="E73">
-        <v>19796432.9672142</v>
+        <v>20718003.17416135</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>84.15868406377371</v>
+        <v>89.82431205124385</v>
       </c>
       <c r="H73">
         <v>0</v>
@@ -2413,24 +2521,50 @@
         <v>124</v>
       </c>
       <c r="B74">
-        <v>8.672700581132009</v>
+        <v>9.242813048554448</v>
       </c>
       <c r="C74">
         <v>0</v>
       </c>
       <c r="D74">
-        <v>11630.26493330965</v>
+        <v>12394.79715437249</v>
       </c>
       <c r="E74">
-        <v>19591112.32266644</v>
+        <v>20476162.07385932</v>
       </c>
       <c r="F74">
         <v>0</v>
       </c>
       <c r="G74">
-        <v>82.89178262798556</v>
+        <v>88.34079338086421</v>
       </c>
       <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" t="s">
+        <v>125</v>
+      </c>
+      <c r="B75">
+        <v>9.091399389496097</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <v>12191.74840930206</v>
+      </c>
+      <c r="E75">
+        <v>20240608.84944247</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>86.89361461616916</v>
+      </c>
+      <c r="H75">
         <v>0</v>
       </c>
     </row>
@@ -2441,7 +2575,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2449,58 +2583,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>84</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>82</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2508,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C2" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="E2" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F2">
-        <v>48.78015129916174</v>
+        <v>48.95272656908845</v>
       </c>
       <c r="G2">
         <v>650</v>
@@ -2547,16 +2681,16 @@
         <v>4865822.962046022</v>
       </c>
       <c r="O2">
-        <v>4352017.909921894</v>
+        <v>4336559.807486307</v>
       </c>
       <c r="P2">
-        <v>41.43321390436613</v>
+        <v>38.47785298620752</v>
       </c>
       <c r="Q2">
-        <v>0.03189403244709129</v>
+        <v>0.02929032999738784</v>
       </c>
       <c r="R2">
-        <v>63.90208667920037</v>
+        <v>64.7348382535332</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -2564,19 +2698,19 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="D3" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E3" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F3">
-        <v>48.61246677057709</v>
+        <v>48.77559490180905</v>
       </c>
       <c r="G3">
         <v>650</v>
@@ -2594,25 +2728,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L3">
-        <v>11.66666666666667</v>
+        <v>1.666666666666668</v>
       </c>
       <c r="M3">
-        <v>7.249328333333335</v>
+        <v>1.035618333333334</v>
       </c>
       <c r="N3">
         <v>4865822.962046022</v>
       </c>
       <c r="O3">
-        <v>4355635.240885197</v>
+        <v>4794198.453627313</v>
       </c>
       <c r="P3">
-        <v>41.25762224439966</v>
+        <v>38.06465037729529</v>
       </c>
       <c r="Q3">
-        <v>0.03175815473112328</v>
+        <v>0.02892830875350846</v>
       </c>
       <c r="R3">
-        <v>63.87687655640176</v>
+        <v>61.65634640098574</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -2620,19 +2754,19 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D4" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F4">
-        <v>48.44713167539881</v>
+        <v>48.77559590012213</v>
       </c>
       <c r="G4">
         <v>650</v>
@@ -2650,25 +2784,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L4">
-        <v>11.66666666666667</v>
+        <v>9.999999999999998</v>
       </c>
       <c r="M4">
-        <v>7.249328333333335</v>
+        <v>6.213709999999999</v>
       </c>
       <c r="N4">
-        <v>4865822.962046022</v>
+        <v>4794198.453627313</v>
       </c>
       <c r="O4">
-        <v>4359193.289164404</v>
+        <v>4340504.755143139</v>
       </c>
       <c r="P4">
-        <v>41.08534095769222</v>
+        <v>38.13649325564026</v>
       </c>
       <c r="Q4">
-        <v>0.03162484332286948</v>
+        <v>0.02903005975330255</v>
       </c>
       <c r="R4">
-        <v>63.8521098136686</v>
+        <v>64.70623300955242</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -2676,19 +2810,19 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="E5" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F5">
-        <v>48.28365040053951</v>
+        <v>48.59961102550478</v>
       </c>
       <c r="G5">
         <v>650</v>
@@ -2706,25 +2840,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>3.333333333333336</v>
       </c>
       <c r="M5">
-        <v>3.106855</v>
+        <v>2.071236666666668</v>
       </c>
       <c r="N5">
         <v>4865822.962046022</v>
       </c>
       <c r="O5">
-        <v>4656524.152573038</v>
+        <v>4722547.955580813</v>
       </c>
       <c r="P5">
-        <v>38.45973916092472</v>
+        <v>37.97508248034337</v>
       </c>
       <c r="Q5">
-        <v>0.02955080802831657</v>
+        <v>0.02886773547756429</v>
       </c>
       <c r="R5">
-        <v>61.88266466627411</v>
+        <v>62.10810798775364</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -2732,19 +2866,19 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C6" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="E6" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F6">
-        <v>48.2836503896902</v>
+        <v>48.59961111395481</v>
       </c>
       <c r="G6">
         <v>650</v>
@@ -2762,25 +2896,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L6">
-        <v>6.666666666666664</v>
+        <v>8.333333333333332</v>
       </c>
       <c r="M6">
-        <v>4.142473333333332</v>
+        <v>5.178091666666666</v>
       </c>
       <c r="N6">
-        <v>4656524.152573038</v>
+        <v>4722547.955580813</v>
       </c>
       <c r="O6">
-        <v>4362698.168959313</v>
+        <v>4344391.794437824</v>
       </c>
       <c r="P6">
-        <v>40.91544602018061</v>
+        <v>38.0349337194756</v>
       </c>
       <c r="Q6">
-        <v>0.03149338544419533</v>
+        <v>0.02895234059105389</v>
       </c>
       <c r="R6">
-        <v>63.8277424111517</v>
+        <v>64.67808472271173</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -2788,19 +2922,19 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C7" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F7">
-        <v>48.12192918882189</v>
+        <v>48.42555342398909</v>
       </c>
       <c r="G7">
         <v>650</v>
@@ -2818,25 +2952,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L7">
-        <v>11.66666666666666</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>7.24932833333333</v>
+        <v>3.106855</v>
       </c>
       <c r="N7">
         <v>4865822.962046022</v>
       </c>
       <c r="O7">
-        <v>4366151.308787311</v>
+        <v>4650847.311906654</v>
       </c>
       <c r="P7">
-        <v>40.7477688909971</v>
+        <v>37.88677100784726</v>
       </c>
       <c r="Q7">
-        <v>0.03136365081375768</v>
+        <v>0.02880829329254438</v>
       </c>
       <c r="R7">
-        <v>63.80376305798013</v>
+        <v>62.57027448691073</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -2844,19 +2978,19 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C8" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="D8" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="E8" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F8">
-        <v>47.96192910310707</v>
+        <v>48.42555343102754</v>
       </c>
       <c r="G8">
         <v>650</v>
@@ -2874,45 +3008,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L8">
-        <v>11.66666666666667</v>
+        <v>6.666666666666664</v>
       </c>
       <c r="M8">
-        <v>7.249328333333335</v>
+        <v>4.142473333333332</v>
       </c>
       <c r="N8">
-        <v>4865822.962046022</v>
+        <v>4650847.311906654</v>
       </c>
       <c r="O8">
-        <v>4369554.288709993</v>
+        <v>4348223.961192051</v>
       </c>
       <c r="P8">
-        <v>40.58224434355105</v>
+        <v>37.93464022592449</v>
       </c>
       <c r="Q8">
-        <v>0.03123558866127136</v>
+        <v>0.02887559374228354</v>
       </c>
       <c r="R8">
-        <v>63.78015948370773</v>
+        <v>64.65036972930982</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="D9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F9">
-        <v>47.80361790477728</v>
+        <v>48.25346214391424</v>
       </c>
       <c r="G9">
         <v>650</v>
@@ -2930,45 +3064,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L9">
-        <v>13</v>
+        <v>8.333333333333336</v>
       </c>
       <c r="M9">
-        <v>8.077823</v>
+        <v>5.178091666666668</v>
       </c>
       <c r="N9">
         <v>4865822.962046022</v>
       </c>
       <c r="O9">
-        <v>4313178.083723024</v>
+        <v>4504622.583510358</v>
       </c>
       <c r="P9">
-        <v>40.95031325531264</v>
+        <v>37.8477136319615</v>
       </c>
       <c r="Q9">
-        <v>0.0315299368936753</v>
+        <v>0.02879353408091034</v>
       </c>
       <c r="R9">
-        <v>64.1747406929411</v>
+        <v>63.54879853627121</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C10" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="D10" t="s">
-        <v>202</v>
+        <v>234</v>
       </c>
       <c r="E10" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F10">
-        <v>47.62659074464341</v>
+        <v>48.25346214440003</v>
       </c>
       <c r="G10">
         <v>650</v>
@@ -2986,45 +3120,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L10">
-        <v>13</v>
+        <v>3.333333333333329</v>
       </c>
       <c r="M10">
-        <v>8.077823</v>
+        <v>2.071236666666664</v>
       </c>
       <c r="N10">
-        <v>4865822.962046022</v>
+        <v>4504622.583510358</v>
       </c>
       <c r="O10">
-        <v>4317394.199659195</v>
+        <v>4352005.453747332</v>
       </c>
       <c r="P10">
-        <v>40.76081876338765</v>
+        <v>37.87172378201949</v>
       </c>
       <c r="Q10">
-        <v>0.03138320751962895</v>
+        <v>0.02882730572600047</v>
       </c>
       <c r="R10">
-        <v>64.14496815588812</v>
+        <v>64.62305611684442</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>235</v>
       </c>
       <c r="E11" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F11">
-        <v>47.45166266218917</v>
+        <v>48.08330918770434</v>
       </c>
       <c r="G11">
         <v>650</v>
@@ -3042,25 +3176,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L11">
-        <v>5.5</v>
+        <v>11.66666666666667</v>
       </c>
       <c r="M11">
-        <v>3.4175405</v>
+        <v>7.249328333333335</v>
       </c>
       <c r="N11">
         <v>4865822.962046022</v>
       </c>
       <c r="O11">
-        <v>4642952.014375147</v>
+        <v>4355751.707740526</v>
       </c>
       <c r="P11">
-        <v>37.90191729472658</v>
+        <v>37.81023271059158</v>
       </c>
       <c r="Q11">
-        <v>0.02912452508322362</v>
+        <v>0.02878010827224394</v>
       </c>
       <c r="R11">
-        <v>61.96846866801055</v>
+        <v>64.59603113903587</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3068,19 +3202,19 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="D12" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="E12" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F12">
-        <v>39.33900238939071</v>
+        <v>47.91506651192051</v>
       </c>
       <c r="G12">
         <v>650</v>
@@ -3098,25 +3232,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L12">
-        <v>7.5</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="M12">
-        <v>4.6602825</v>
+        <v>7.343475454545456</v>
       </c>
       <c r="N12">
-        <v>4642952.014375147</v>
+        <v>4865822.962046022</v>
       </c>
       <c r="O12">
-        <v>4422028.727705522</v>
+        <v>4352463.640046223</v>
       </c>
       <c r="P12">
-        <v>32.91081077948136</v>
+        <v>37.6823003152677</v>
       </c>
       <c r="Q12">
-        <v>0.02532281575601534</v>
+        <v>0.02868307208301009</v>
       </c>
       <c r="R12">
-        <v>63.41960185172471</v>
+        <v>64.61974900119652</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3124,19 +3258,19 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C13" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="D13" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="E13" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F13">
-        <v>39.22367723155822</v>
+        <v>47.74626648059002</v>
       </c>
       <c r="G13">
         <v>650</v>
@@ -3154,25 +3288,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L13">
-        <v>13</v>
+        <v>3.93181818181818</v>
       </c>
       <c r="M13">
-        <v>8.077823</v>
+        <v>2.443117795454544</v>
       </c>
       <c r="N13">
         <v>4865822.962046022</v>
       </c>
       <c r="O13">
-        <v>4496553.245275066</v>
+        <v>4702216.066588552</v>
       </c>
       <c r="P13">
-        <v>32.29760732773106</v>
+        <v>37.32516224288786</v>
       </c>
       <c r="Q13">
-        <v>0.02483973639188359</v>
+        <v>0.02837580920975124</v>
       </c>
       <c r="R13">
-        <v>62.91829037350549</v>
+        <v>62.23812150506072</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3180,19 +3314,19 @@
         <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C14" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F14">
-        <v>39.12891576863097</v>
+        <v>47.74626648059013</v>
       </c>
       <c r="G14">
         <v>650</v>
@@ -3210,25 +3344,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L14">
-        <v>13</v>
+        <v>7.88636363636364</v>
       </c>
       <c r="M14">
-        <v>8.077823</v>
+        <v>4.900357659090911</v>
       </c>
       <c r="N14">
-        <v>4865822.962046022</v>
+        <v>4702216.066588552</v>
       </c>
       <c r="O14">
-        <v>4498348.567916081</v>
+        <v>4356156.422884206</v>
       </c>
       <c r="P14">
-        <v>32.2073669163341</v>
+        <v>37.38087783712439</v>
       </c>
       <c r="Q14">
-        <v>0.02477006499528892</v>
+        <v>0.02845325338268903</v>
       </c>
       <c r="R14">
-        <v>62.90636564780746</v>
+        <v>64.5931136066735</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -3236,19 +3370,19 @@
         <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C15" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="D15" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E15" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F15">
-        <v>39.03486448946092</v>
+        <v>47.57934367740155</v>
       </c>
       <c r="G15">
         <v>650</v>
@@ -3266,25 +3400,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L15">
-        <v>13</v>
+        <v>7.86363636363636</v>
       </c>
       <c r="M15">
-        <v>8.077823</v>
+        <v>4.886235590909089</v>
       </c>
       <c r="N15">
         <v>4865822.962046022</v>
       </c>
       <c r="O15">
-        <v>4500125.650714075</v>
+        <v>4535236.113741167</v>
       </c>
       <c r="P15">
-        <v>32.11790312720098</v>
+        <v>37.30564340651419</v>
       </c>
       <c r="Q15">
-        <v>0.02470099519098269</v>
+        <v>0.02837818761488594</v>
       </c>
       <c r="R15">
-        <v>62.89456901808417</v>
+        <v>63.33969281564816</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -3292,19 +3426,19 @@
         <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C16" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="E16" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F16">
-        <v>38.94151426736429</v>
+        <v>39.46668340460315</v>
       </c>
       <c r="G16">
         <v>650</v>
@@ -3322,25 +3456,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>3.95454545454546</v>
       </c>
       <c r="M16">
-        <v>1.242742</v>
+        <v>2.457239863636367</v>
       </c>
       <c r="N16">
-        <v>4865822.962046022</v>
+        <v>4535236.113741167</v>
       </c>
       <c r="O16">
-        <v>4811535.140028085</v>
+        <v>4413960.254057059</v>
       </c>
       <c r="P16">
-        <v>30.06901998851067</v>
+        <v>30.96800829905313</v>
       </c>
       <c r="Q16">
-        <v>0.02308299009823035</v>
+        <v>0.02356707530590499</v>
       </c>
       <c r="R16">
-        <v>60.92830701828348</v>
+        <v>64.18043133242925</v>
       </c>
     </row>
     <row r="17" spans="1:18">
@@ -3348,19 +3482,19 @@
         <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F17">
-        <v>38.94151426736411</v>
+        <v>39.34530861975033</v>
       </c>
       <c r="G17">
         <v>650</v>
@@ -3378,25 +3512,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L17">
-        <v>11</v>
+        <v>11.81818181818182</v>
       </c>
       <c r="M17">
-        <v>6.835081</v>
+        <v>7.343475454545456</v>
       </c>
       <c r="N17">
-        <v>4811535.140028085</v>
+        <v>4865822.962046022</v>
       </c>
       <c r="O17">
-        <v>4501884.8018276</v>
+        <v>4521904.191755312</v>
       </c>
       <c r="P17">
-        <v>32.0292044547561</v>
+        <v>30.94270431704686</v>
       </c>
       <c r="Q17">
-        <v>0.02463251803913867</v>
+        <v>0.02353899993898193</v>
       </c>
       <c r="R17">
-        <v>62.8828982211652</v>
+        <v>63.43050245560413</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3404,19 +3538,19 @@
         <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C18" t="s">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="D18" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F18">
-        <v>38.84885614916231</v>
+        <v>39.25506246246415</v>
       </c>
       <c r="G18">
         <v>650</v>
@@ -3434,25 +3568,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L18">
-        <v>13</v>
+        <v>0.3939393939393909</v>
       </c>
       <c r="M18">
-        <v>8.077823</v>
+        <v>0.2447825151515133</v>
       </c>
       <c r="N18">
         <v>4865822.962046022</v>
       </c>
       <c r="O18">
-        <v>4503626.230482307</v>
+        <v>4854789.212054112</v>
       </c>
       <c r="P18">
-        <v>31.94126026049242</v>
+        <v>30.60556774008359</v>
       </c>
       <c r="Q18">
-        <v>0.02456462528281748</v>
+        <v>0.02325458299320541</v>
       </c>
       <c r="R18">
-        <v>62.8713516569497</v>
+        <v>61.2819140309153</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -3460,19 +3594,19 @@
         <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C19" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="E19" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F19">
-        <v>38.75688132641698</v>
+        <v>39.25506246246442</v>
       </c>
       <c r="G19">
         <v>650</v>
@@ -3490,25 +3624,25 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L19">
-        <v>13</v>
+        <v>11.42424242424243</v>
       </c>
       <c r="M19">
-        <v>8.077823</v>
+        <v>7.098692939393943</v>
       </c>
       <c r="N19">
-        <v>4865822.962046022</v>
+        <v>4854789.212054112</v>
       </c>
       <c r="O19">
-        <v>4505350.279559007</v>
+        <v>4523488.796483492</v>
       </c>
       <c r="P19">
-        <v>31.85405917599845</v>
+        <v>30.67145615131222</v>
       </c>
       <c r="Q19">
-        <v>0.02449730808518454</v>
+        <v>0.02333252813448057</v>
       </c>
       <c r="R19">
-        <v>62.85992684554305</v>
+        <v>63.41968855245604</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -3516,19 +3650,19 @@
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="D20" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E20" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F20">
-        <v>38.66558116877539</v>
+        <v>39.16546323905106</v>
       </c>
       <c r="G20">
         <v>650</v>
@@ -3546,45 +3680,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L20">
-        <v>13</v>
+        <v>4.742424242424242</v>
       </c>
       <c r="M20">
-        <v>8.077823</v>
+        <v>2.946804893939394</v>
       </c>
       <c r="N20">
         <v>4865822.962046022</v>
       </c>
       <c r="O20">
-        <v>4507057.193088789</v>
+        <v>4731939.229730661</v>
       </c>
       <c r="P20">
-        <v>31.76759069947055</v>
+        <v>30.63597114961317</v>
       </c>
       <c r="Q20">
-        <v>0.02443055829183505</v>
+        <v>0.02328791929709484</v>
       </c>
       <c r="R20">
-        <v>62.84862196908955</v>
+        <v>62.04832936455576</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F21">
-        <v>38.57494719534453</v>
+        <v>39.16546323905115</v>
       </c>
       <c r="G21">
         <v>650</v>
@@ -3602,45 +3736,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>7.075757575757578</v>
       </c>
       <c r="M21">
-        <v>15.534275</v>
+        <v>4.396670560606062</v>
       </c>
       <c r="N21">
-        <v>4865822.962046022</v>
+        <v>4731939.229730661</v>
       </c>
       <c r="O21">
-        <v>4153448.564810779</v>
+        <v>4525058.832667484</v>
       </c>
       <c r="P21">
-        <v>34.25080015762758</v>
+        <v>30.67704291071613</v>
       </c>
       <c r="Q21">
-        <v>0.02639839106826037</v>
+        <v>0.02333665375889065</v>
       </c>
       <c r="R21">
-        <v>65.33540422081342</v>
+        <v>63.40897952312288</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="D22" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E22" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F22">
-        <v>38.38679376119101</v>
+        <v>39.07650343160689</v>
       </c>
       <c r="G22">
         <v>650</v>
@@ -3658,45 +3792,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L22">
-        <v>25</v>
+        <v>9.090909090909093</v>
       </c>
       <c r="M22">
-        <v>15.534275</v>
+        <v>5.648827272727274</v>
       </c>
       <c r="N22">
         <v>4865822.962046022</v>
       </c>
       <c r="O22">
-        <v>4160710.188521888</v>
+        <v>4607039.580147291</v>
       </c>
       <c r="P22">
-        <v>34.02722096456097</v>
+        <v>30.66741974054591</v>
       </c>
       <c r="Q22">
-        <v>0.02622484045690823</v>
+        <v>0.02332274090189485</v>
       </c>
       <c r="R22">
-        <v>65.28121255174439</v>
+        <v>62.85777863301485</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="E23" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F23">
-        <v>38.20165108358196</v>
+        <v>39.07650343160658</v>
       </c>
       <c r="G23">
         <v>650</v>
@@ -3714,45 +3848,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>2.727272727272734</v>
       </c>
       <c r="M23">
-        <v>15.534275</v>
+        <v>1.694648181818186</v>
       </c>
       <c r="N23">
-        <v>4865822.962046022</v>
+        <v>4607039.580147291</v>
       </c>
       <c r="O23">
-        <v>4167810.768937777</v>
+        <v>4526610.414341434</v>
       </c>
       <c r="P23">
-        <v>33.80829267144698</v>
+        <v>30.68335338834988</v>
       </c>
       <c r="Q23">
-        <v>0.02605491927445856</v>
+        <v>0.02334133141934079</v>
       </c>
       <c r="R23">
-        <v>65.22835774539517</v>
+        <v>63.39840169771319</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="D24" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="E24" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F24">
-        <v>38.01943400289225</v>
+        <v>38.98817451411336</v>
       </c>
       <c r="G24">
         <v>650</v>
@@ -3770,45 +3904,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L24">
-        <v>25</v>
+        <v>11.81818181818181</v>
       </c>
       <c r="M24">
-        <v>15.534275</v>
+        <v>7.343475454545449</v>
       </c>
       <c r="N24">
         <v>4865822.962046022</v>
       </c>
       <c r="O24">
-        <v>4174755.921982693</v>
+        <v>4528150.941042197</v>
       </c>
       <c r="P24">
-        <v>33.59385004013048</v>
+        <v>30.66183995430782</v>
       </c>
       <c r="Q24">
-        <v>0.02588849805763766</v>
+        <v>0.02332484398184326</v>
       </c>
       <c r="R24">
-        <v>65.17678853185471</v>
+        <v>63.38790447456379</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B25" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="D25" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E25" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F25">
-        <v>37.84006085815943</v>
+        <v>38.9004700757539</v>
       </c>
       <c r="G25">
         <v>650</v>
@@ -3826,45 +3960,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>2.121212121212125</v>
       </c>
       <c r="M25">
-        <v>15.534275</v>
+        <v>1.318059696969699</v>
       </c>
       <c r="N25">
         <v>4865822.962046022</v>
       </c>
       <c r="O25">
-        <v>4181550.994815283</v>
+        <v>4807168.102858045</v>
       </c>
       <c r="P25">
-        <v>33.38373610429525</v>
+        <v>30.36854336048954</v>
       </c>
       <c r="Q25">
-        <v>0.02572545384432878</v>
+        <v>0.0230783662515439</v>
       </c>
       <c r="R25">
-        <v>65.12645631121418</v>
+        <v>61.57562069245655</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C26" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="D26" t="s">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="E26" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F26">
-        <v>37.66345329134793</v>
+        <v>38.90047007575408</v>
       </c>
       <c r="G26">
         <v>650</v>
@@ -3882,45 +4016,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L26">
-        <v>25</v>
+        <v>9.696969696969688</v>
       </c>
       <c r="M26">
-        <v>15.534275</v>
+        <v>6.025415757575752</v>
       </c>
       <c r="N26">
-        <v>4865822.962046022</v>
+        <v>4807168.102858045</v>
       </c>
       <c r="O26">
-        <v>4188201.082442428</v>
+        <v>4529675.988140724</v>
       </c>
       <c r="P26">
-        <v>33.17780163045602</v>
+        <v>30.42415632772641</v>
       </c>
       <c r="Q26">
-        <v>0.02556566974897012</v>
+        <v>0.02314391549929394</v>
       </c>
       <c r="R26">
-        <v>65.07731497644764</v>
+        <v>63.37751786440531</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B27" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C27" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="D27" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E27" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F27">
-        <v>37.48953608141773</v>
+        <v>38.81338254370156</v>
       </c>
       <c r="G27">
         <v>650</v>
@@ -3938,45 +4072,45 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>6.969696969696983</v>
       </c>
       <c r="M27">
-        <v>15.534275</v>
+        <v>4.330767575757585</v>
       </c>
       <c r="N27">
         <v>4865822.962046022</v>
       </c>
       <c r="O27">
-        <v>4194711.042476623</v>
+        <v>4671284.311111992</v>
       </c>
       <c r="P27">
-        <v>32.97590464044305</v>
+        <v>30.41184252881515</v>
       </c>
       <c r="Q27">
-        <v>0.02540903458623282</v>
+        <v>0.02312274023825246</v>
       </c>
       <c r="R27">
-        <v>65.02932075493439</v>
+        <v>62.43749193857644</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C28" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="D28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="E28" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F28">
-        <v>37.318236972821</v>
+        <v>38.81338254370153</v>
       </c>
       <c r="G28">
         <v>650</v>
@@ -3994,25 +4128,977 @@
         <v>4.865822962046021</v>
       </c>
       <c r="L28">
-        <v>25</v>
+        <v>4.848484848484844</v>
       </c>
       <c r="M28">
-        <v>15.534275</v>
+        <v>3.012707878787876</v>
       </c>
       <c r="N28">
+        <v>4671284.311111992</v>
+      </c>
+      <c r="O28">
+        <v>4531186.387882071</v>
+      </c>
+      <c r="P28">
+        <v>30.4398581401474</v>
+      </c>
+      <c r="Q28">
+        <v>0.02315574157559715</v>
+      </c>
+      <c r="R28">
+        <v>63.3672360435594</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>169</v>
+      </c>
+      <c r="C29" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" t="s">
+        <v>246</v>
+      </c>
+      <c r="E29" t="s">
+        <v>255</v>
+      </c>
+      <c r="F29">
+        <v>38.72690463916599</v>
+      </c>
+      <c r="G29">
+        <v>650</v>
+      </c>
+      <c r="H29" t="s">
+        <v>86</v>
+      </c>
+      <c r="I29">
+        <v>9.525</v>
+      </c>
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L29">
+        <v>11.81818181818183</v>
+      </c>
+      <c r="M29">
+        <v>7.343475454545462</v>
+      </c>
+      <c r="N29">
         <v>4865822.962046022</v>
       </c>
-      <c r="O28">
-        <v>4201085.509443228</v>
-      </c>
-      <c r="P28">
-        <v>32.77790995134139</v>
-      </c>
-      <c r="Q28">
-        <v>0.02525544250874973</v>
-      </c>
-      <c r="R28">
-        <v>64.98243205770812</v>
+      <c r="O29">
+        <v>4532681.101135243</v>
+      </c>
+      <c r="P29">
+        <v>30.45636700795024</v>
+      </c>
+      <c r="Q29">
+        <v>0.02316818275669781</v>
+      </c>
+      <c r="R29">
+        <v>63.35706593097168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>170</v>
+      </c>
+      <c r="C30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" t="s">
+        <v>255</v>
+      </c>
+      <c r="F30">
+        <v>38.6410288613653</v>
+      </c>
+      <c r="G30">
+        <v>650</v>
+      </c>
+      <c r="H30" t="s">
+        <v>86</v>
+      </c>
+      <c r="I30">
+        <v>9.525</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L30">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M30">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N30">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O30">
+        <v>4391091.449735745</v>
+      </c>
+      <c r="P30">
+        <v>30.50213133533921</v>
+      </c>
+      <c r="Q30">
+        <v>0.02321442690352209</v>
+      </c>
+      <c r="R30">
+        <v>64.34275231227099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>171</v>
+      </c>
+      <c r="C31" t="s">
+        <v>215</v>
+      </c>
+      <c r="D31" t="s">
+        <v>247</v>
+      </c>
+      <c r="E31" t="s">
+        <v>255</v>
+      </c>
+      <c r="F31">
+        <v>38.64102886136531</v>
+      </c>
+      <c r="G31">
+        <v>650</v>
+      </c>
+      <c r="H31" t="s">
+        <v>86</v>
+      </c>
+      <c r="I31">
+        <v>9.525</v>
+      </c>
+      <c r="J31" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L31">
+        <v>8.333333333333336</v>
+      </c>
+      <c r="M31">
+        <v>5.178091666666668</v>
+      </c>
+      <c r="N31">
+        <v>4391091.449735745</v>
+      </c>
+      <c r="O31">
+        <v>4133937.103348901</v>
+      </c>
+      <c r="P31">
+        <v>30.55120996535084</v>
+      </c>
+      <c r="Q31">
+        <v>0.02327364642818177</v>
+      </c>
+      <c r="R31">
+        <v>66.25911036343361</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>172</v>
+      </c>
+      <c r="C32" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" t="s">
+        <v>255</v>
+      </c>
+      <c r="F32">
+        <v>38.44220235364211</v>
+      </c>
+      <c r="G32">
+        <v>650</v>
+      </c>
+      <c r="H32" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32">
+        <v>9.525</v>
+      </c>
+      <c r="J32" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L32">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="M32">
+        <v>5.178091666666666</v>
+      </c>
+      <c r="N32">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O32">
+        <v>4636710.743668576</v>
+      </c>
+      <c r="P32">
+        <v>30.15222956104614</v>
+      </c>
+      <c r="Q32">
+        <v>0.02292833943772314</v>
+      </c>
+      <c r="R32">
+        <v>62.6626193272523</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>173</v>
+      </c>
+      <c r="C33" t="s">
+        <v>217</v>
+      </c>
+      <c r="D33" t="s">
+        <v>248</v>
+      </c>
+      <c r="E33" t="s">
+        <v>255</v>
+      </c>
+      <c r="F33">
+        <v>38.44220235364207</v>
+      </c>
+      <c r="G33">
+        <v>650</v>
+      </c>
+      <c r="H33" t="s">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>9.525</v>
+      </c>
+      <c r="J33" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L33">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M33">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N33">
+        <v>4636710.743668576</v>
+      </c>
+      <c r="O33">
+        <v>4141818.268532108</v>
+      </c>
+      <c r="P33">
+        <v>30.24824012886473</v>
+      </c>
+      <c r="Q33">
+        <v>0.02304223788408494</v>
+      </c>
+      <c r="R33">
+        <v>66.19755451376943</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>174</v>
+      </c>
+      <c r="C34" t="s">
+        <v>218</v>
+      </c>
+      <c r="D34" t="s">
+        <v>219</v>
+      </c>
+      <c r="E34" t="s">
+        <v>255</v>
+      </c>
+      <c r="F34">
+        <v>38.24681535226613</v>
+      </c>
+      <c r="G34">
+        <v>650</v>
+      </c>
+      <c r="H34" t="s">
+        <v>86</v>
+      </c>
+      <c r="I34">
+        <v>9.525</v>
+      </c>
+      <c r="J34" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L34">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M34">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N34">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O34">
+        <v>4400914.935676467</v>
+      </c>
+      <c r="P34">
+        <v>30.19095038123345</v>
+      </c>
+      <c r="Q34">
+        <v>0.02297678885652028</v>
+      </c>
+      <c r="R34">
+        <v>64.27287523159232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>175</v>
+      </c>
+      <c r="C35" t="s">
+        <v>219</v>
+      </c>
+      <c r="D35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E35" t="s">
+        <v>255</v>
+      </c>
+      <c r="F35">
+        <v>38.2468153522661</v>
+      </c>
+      <c r="G35">
+        <v>650</v>
+      </c>
+      <c r="H35" t="s">
+        <v>86</v>
+      </c>
+      <c r="I35">
+        <v>9.525</v>
+      </c>
+      <c r="J35" t="s">
+        <v>85</v>
+      </c>
+      <c r="K35">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L35">
+        <v>8.333333333333343</v>
+      </c>
+      <c r="M35">
+        <v>5.178091666666672</v>
+      </c>
+      <c r="N35">
+        <v>4400914.935676467</v>
+      </c>
+      <c r="O35">
+        <v>4149551.629908944</v>
+      </c>
+      <c r="P35">
+        <v>30.23952831394146</v>
+      </c>
+      <c r="Q35">
+        <v>0.02303500628469935</v>
+      </c>
+      <c r="R35">
+        <v>66.13731954481381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>176</v>
+      </c>
+      <c r="C36" t="s">
+        <v>220</v>
+      </c>
+      <c r="D36" t="s">
+        <v>221</v>
+      </c>
+      <c r="E36" t="s">
+        <v>255</v>
+      </c>
+      <c r="F36">
+        <v>38.0547808030154</v>
+      </c>
+      <c r="G36">
+        <v>650</v>
+      </c>
+      <c r="H36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I36">
+        <v>9.525</v>
+      </c>
+      <c r="J36" t="s">
+        <v>85</v>
+      </c>
+      <c r="K36">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L36">
+        <v>8.333333333333329</v>
+      </c>
+      <c r="M36">
+        <v>5.178091666666663</v>
+      </c>
+      <c r="N36">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O36">
+        <v>4641270.4856087</v>
+      </c>
+      <c r="P36">
+        <v>29.84835457948474</v>
+      </c>
+      <c r="Q36">
+        <v>0.02269687462821422</v>
+      </c>
+      <c r="R36">
+        <v>62.63278889502322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" t="s">
+        <v>221</v>
+      </c>
+      <c r="D37" t="s">
+        <v>250</v>
+      </c>
+      <c r="E37" t="s">
+        <v>255</v>
+      </c>
+      <c r="F37">
+        <v>38.05478080301538</v>
+      </c>
+      <c r="G37">
+        <v>650</v>
+      </c>
+      <c r="H37" t="s">
+        <v>86</v>
+      </c>
+      <c r="I37">
+        <v>9.525</v>
+      </c>
+      <c r="J37" t="s">
+        <v>85</v>
+      </c>
+      <c r="K37">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L37">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M37">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N37">
+        <v>4641270.4856087</v>
+      </c>
+      <c r="O37">
+        <v>4157064.027729862</v>
+      </c>
+      <c r="P37">
+        <v>29.94339755021512</v>
+      </c>
+      <c r="Q37">
+        <v>0.02280885755269644</v>
+      </c>
+      <c r="R37">
+        <v>66.07896282478444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" t="s">
+        <v>222</v>
+      </c>
+      <c r="D38" t="s">
+        <v>223</v>
+      </c>
+      <c r="E38" t="s">
+        <v>255</v>
+      </c>
+      <c r="F38">
+        <v>37.86599117752703</v>
+      </c>
+      <c r="G38">
+        <v>650</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38">
+        <v>9.525</v>
+      </c>
+      <c r="J38" t="s">
+        <v>85</v>
+      </c>
+      <c r="K38">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L38">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M38">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N38">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O38">
+        <v>4410293.334579322</v>
+      </c>
+      <c r="P38">
+        <v>29.89033858760758</v>
+      </c>
+      <c r="Q38">
+        <v>0.02274724987937389</v>
+      </c>
+      <c r="R38">
+        <v>64.20637615439065</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D39" t="s">
+        <v>251</v>
+      </c>
+      <c r="E39" t="s">
+        <v>255</v>
+      </c>
+      <c r="F39">
+        <v>37.86599117752701</v>
+      </c>
+      <c r="G39">
+        <v>650</v>
+      </c>
+      <c r="H39" t="s">
+        <v>86</v>
+      </c>
+      <c r="I39">
+        <v>9.525</v>
+      </c>
+      <c r="J39" t="s">
+        <v>85</v>
+      </c>
+      <c r="K39">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L39">
+        <v>8.333333333333336</v>
+      </c>
+      <c r="M39">
+        <v>5.178091666666668</v>
+      </c>
+      <c r="N39">
+        <v>4410293.334579322</v>
+      </c>
+      <c r="O39">
+        <v>4164437.083456788</v>
+      </c>
+      <c r="P39">
+        <v>29.93843282903402</v>
+      </c>
+      <c r="Q39">
+        <v>0.02280451752366624</v>
+      </c>
+      <c r="R39">
+        <v>66.02183846440246</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>180</v>
+      </c>
+      <c r="C40" t="s">
+        <v>224</v>
+      </c>
+      <c r="D40" t="s">
+        <v>225</v>
+      </c>
+      <c r="E40" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40">
+        <v>37.68036572592165</v>
+      </c>
+      <c r="G40">
+        <v>650</v>
+      </c>
+      <c r="H40" t="s">
+        <v>86</v>
+      </c>
+      <c r="I40">
+        <v>9.525</v>
+      </c>
+      <c r="J40" t="s">
+        <v>85</v>
+      </c>
+      <c r="K40">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L40">
+        <v>8.333333333333332</v>
+      </c>
+      <c r="M40">
+        <v>5.178091666666666</v>
+      </c>
+      <c r="N40">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O40">
+        <v>4645631.06209994</v>
+      </c>
+      <c r="P40">
+        <v>29.55468125526173</v>
+      </c>
+      <c r="Q40">
+        <v>0.0224731926876343</v>
+      </c>
+      <c r="R40">
+        <v>62.60430124444154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" t="s">
+        <v>225</v>
+      </c>
+      <c r="D41" t="s">
+        <v>252</v>
+      </c>
+      <c r="E41" t="s">
+        <v>255</v>
+      </c>
+      <c r="F41">
+        <v>37.68036572592172</v>
+      </c>
+      <c r="G41">
+        <v>650</v>
+      </c>
+      <c r="H41" t="s">
+        <v>86</v>
+      </c>
+      <c r="I41">
+        <v>9.525</v>
+      </c>
+      <c r="J41" t="s">
+        <v>85</v>
+      </c>
+      <c r="K41">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L41">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M41">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N41">
+        <v>4645631.06209994</v>
+      </c>
+      <c r="O41">
+        <v>4171606.781266716</v>
+      </c>
+      <c r="P41">
+        <v>29.64878911296666</v>
+      </c>
+      <c r="Q41">
+        <v>0.02258335596210616</v>
+      </c>
+      <c r="R41">
+        <v>65.96643150115214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>182</v>
+      </c>
+      <c r="C42" t="s">
+        <v>226</v>
+      </c>
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" t="s">
+        <v>255</v>
+      </c>
+      <c r="F42">
+        <v>37.49780602363148</v>
+      </c>
+      <c r="G42">
+        <v>650</v>
+      </c>
+      <c r="H42" t="s">
+        <v>86</v>
+      </c>
+      <c r="I42">
+        <v>9.525</v>
+      </c>
+      <c r="J42" t="s">
+        <v>85</v>
+      </c>
+      <c r="K42">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L42">
+        <v>16.66666666666666</v>
+      </c>
+      <c r="M42">
+        <v>10.35618333333333</v>
+      </c>
+      <c r="N42">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O42">
+        <v>4419256.992265442</v>
+      </c>
+      <c r="P42">
+        <v>29.59970367826973</v>
+      </c>
+      <c r="Q42">
+        <v>0.02252535442598358</v>
+      </c>
+      <c r="R42">
+        <v>64.14301040125868</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" t="s">
+        <v>227</v>
+      </c>
+      <c r="D43" t="s">
+        <v>253</v>
+      </c>
+      <c r="E43" t="s">
+        <v>255</v>
+      </c>
+      <c r="F43">
+        <v>37.49780602363148</v>
+      </c>
+      <c r="G43">
+        <v>650</v>
+      </c>
+      <c r="H43" t="s">
+        <v>86</v>
+      </c>
+      <c r="I43">
+        <v>9.525</v>
+      </c>
+      <c r="J43" t="s">
+        <v>85</v>
+      </c>
+      <c r="K43">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L43">
+        <v>8.333333333333343</v>
+      </c>
+      <c r="M43">
+        <v>5.178091666666672</v>
+      </c>
+      <c r="N43">
+        <v>4419256.992265442</v>
+      </c>
+      <c r="O43">
+        <v>4178644.739062462</v>
+      </c>
+      <c r="P43">
+        <v>29.6473302814506</v>
+      </c>
+      <c r="Q43">
+        <v>0.02258172027535455</v>
+      </c>
+      <c r="R43">
+        <v>65.91217806736719</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" t="s">
+        <v>229</v>
+      </c>
+      <c r="E44" t="s">
+        <v>255</v>
+      </c>
+      <c r="F44">
+        <v>37.31823697282096</v>
+      </c>
+      <c r="G44">
+        <v>650</v>
+      </c>
+      <c r="H44" t="s">
+        <v>86</v>
+      </c>
+      <c r="I44">
+        <v>9.525</v>
+      </c>
+      <c r="J44" t="s">
+        <v>85</v>
+      </c>
+      <c r="K44">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L44">
+        <v>8.333333333333329</v>
+      </c>
+      <c r="M44">
+        <v>5.178091666666663</v>
+      </c>
+      <c r="N44">
+        <v>4865822.962046022</v>
+      </c>
+      <c r="O44">
+        <v>4649805.566991739</v>
+      </c>
+      <c r="P44">
+        <v>29.27064473743426</v>
+      </c>
+      <c r="Q44">
+        <v>0.02225686201782282</v>
+      </c>
+      <c r="R44">
+        <v>62.57706558684811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" t="s">
+        <v>229</v>
+      </c>
+      <c r="D45" t="s">
+        <v>254</v>
+      </c>
+      <c r="E45" t="s">
+        <v>255</v>
+      </c>
+      <c r="F45">
+        <v>37.31823697282105</v>
+      </c>
+      <c r="G45">
+        <v>650</v>
+      </c>
+      <c r="H45" t="s">
+        <v>86</v>
+      </c>
+      <c r="I45">
+        <v>9.525</v>
+      </c>
+      <c r="J45" t="s">
+        <v>85</v>
+      </c>
+      <c r="K45">
+        <v>4.865822962046021</v>
+      </c>
+      <c r="L45">
+        <v>16.66666666666667</v>
+      </c>
+      <c r="M45">
+        <v>10.35618333333334</v>
+      </c>
+      <c r="N45">
+        <v>4649805.566991739</v>
+      </c>
+      <c r="O45">
+        <v>4185495.351773777</v>
+      </c>
+      <c r="P45">
+        <v>29.36384816758093</v>
+      </c>
+      <c r="Q45">
+        <v>0.02236525950281841</v>
+      </c>
+      <c r="R45">
+        <v>65.85959873384216</v>
       </c>
     </row>
   </sheetData>
@@ -4022,7 +5108,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R24"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4030,58 +5116,58 @@
   <sheetData>
     <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>95</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>101</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -4092,13 +5178,13 @@
         <v>102</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="E2" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F2">
         <v>11.66666666666667</v>
@@ -4107,22 +5193,22 @@
         <v>7.249328333333333</v>
       </c>
       <c r="H2">
-        <v>1.1180613367773</v>
+        <v>1.122046778565359</v>
       </c>
       <c r="I2">
-        <v>80.8524290363702</v>
+        <v>86.19320375350401</v>
       </c>
       <c r="J2">
-        <v>8.459329574762013</v>
+        <v>9.018117653923717</v>
       </c>
       <c r="K2">
-        <v>11344.13014634735</v>
+        <v>12093.47613626478</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>8.459329574762013</v>
+        <v>9.018117653923717</v>
       </c>
       <c r="N2">
         <v>0.78</v>
@@ -4131,13 +5217,13 @@
         <v>0.357</v>
       </c>
       <c r="P2">
-        <v>19261182.41313111</v>
+        <v>20126733.96341903</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>19261182.41313111</v>
+        <v>20126733.96341903</v>
       </c>
     </row>
     <row r="3" spans="1:18">
@@ -4148,13 +5234,13 @@
         <v>103</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F3">
         <v>23.33333333333333</v>
@@ -4163,22 +5249,22 @@
         <v>14.49865666666667</v>
       </c>
       <c r="H3">
-        <v>1.1171327930245</v>
+        <v>1.121026985693409</v>
       </c>
       <c r="I3">
-        <v>79.9699540248605</v>
+        <v>85.20259090823538</v>
       </c>
       <c r="J3">
-        <v>8.366999052935707</v>
+        <v>8.914473018394579</v>
       </c>
       <c r="K3">
-        <v>11220.31306996784</v>
+        <v>11954.4866071275</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>8.366999052935707</v>
+        <v>8.914473018394579</v>
       </c>
       <c r="N3">
         <v>0.78</v>
@@ -4187,13 +5273,13 @@
         <v>0.357</v>
       </c>
       <c r="P3">
-        <v>19118635.35200846</v>
+        <v>19965820.86134986</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
       <c r="R3">
-        <v>19118635.35200846</v>
+        <v>19965820.86134986</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -4204,13 +5290,13 @@
         <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F4">
         <v>35</v>
@@ -4219,22 +5305,22 @@
         <v>21.747985</v>
       </c>
       <c r="H4">
-        <v>1.116220970091173</v>
+        <v>1.120023973960128</v>
       </c>
       <c r="I4">
-        <v>79.10518625546297</v>
+        <v>84.23019072572833</v>
       </c>
       <c r="J4">
-        <v>8.276521182893301</v>
+        <v>8.812733915186122</v>
       </c>
       <c r="K4">
-        <v>11098.98043668357</v>
+        <v>11818.05243494289</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>8.276521182893301</v>
+        <v>8.812733915186122</v>
       </c>
       <c r="N4">
         <v>0.78</v>
@@ -4243,13 +5329,13 @@
         <v>0.357</v>
       </c>
       <c r="P4">
-        <v>18979078.16302378</v>
+        <v>19808029.91843414</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>18979078.16302378</v>
+        <v>19808029.91843414</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -4260,13 +5346,13 @@
         <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="E5" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F5">
         <v>46.66666666666666</v>
@@ -4275,22 +5361,22 @@
         <v>28.99731333333333</v>
       </c>
       <c r="H5">
-        <v>1.115324226797639</v>
+        <v>1.119036877003933</v>
       </c>
       <c r="I5">
-        <v>78.25674966992443</v>
+        <v>83.27536622539786</v>
       </c>
       <c r="J5">
-        <v>8.187751992086088</v>
+        <v>8.712833699068685</v>
       </c>
       <c r="K5">
-        <v>10979.93917642729</v>
+        <v>11684.08424712509</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>8.187751992086088</v>
+        <v>8.712833699068685</v>
       </c>
       <c r="N5">
         <v>0.78</v>
@@ -4299,13 +5385,13 @@
         <v>0.357</v>
       </c>
       <c r="P5">
-        <v>18842281.1978186</v>
+        <v>19653248.81501039</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5">
-        <v>18842281.1978186</v>
+        <v>19653248.81501039</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -4316,13 +5402,13 @@
         <v>106</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F6">
         <v>58.33333333333333</v>
@@ -4331,22 +5417,22 @@
         <v>36.24664166666666</v>
       </c>
       <c r="H6">
-        <v>1.114442129445462</v>
+        <v>1.11806453685766</v>
       </c>
       <c r="I6">
-        <v>77.42415839105819</v>
+        <v>82.33717331276218</v>
       </c>
       <c r="J6">
-        <v>8.100640644746926</v>
+        <v>8.614673592473483</v>
       </c>
       <c r="K6">
-        <v>10863.12111741852</v>
+        <v>11552.44958097879</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>8.100640644746926</v>
+        <v>8.614673592473483</v>
       </c>
       <c r="N6">
         <v>0.78</v>
@@ -4355,13 +5441,13 @@
         <v>0.357</v>
       </c>
       <c r="P6">
-        <v>18708159.09008107</v>
+        <v>19501316.10176986</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6">
-        <v>18708159.09008107</v>
+        <v>19501316.10176986</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -4369,13 +5455,13 @@
         <v>107</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="F7">
         <v>70</v>
@@ -4384,16 +5470,16 @@
         <v>43.49597</v>
       </c>
       <c r="H7">
-        <v>1.113574209300542</v>
+        <v>1.117102922418433</v>
       </c>
       <c r="I7">
-        <v>76.60692104781761</v>
+        <v>81.4127729405205</v>
       </c>
       <c r="J7">
-        <v>8.015135730303786</v>
+        <v>8.517956555013701</v>
       </c>
       <c r="K7">
-        <v>10748.45731705198</v>
+        <v>11422.75009940447</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -4425,37 +5511,37 @@
         <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="D8" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F8">
-        <v>83</v>
+        <v>81.81818181818181</v>
       </c>
       <c r="G8">
-        <v>51.573793</v>
+        <v>50.83944545454546</v>
       </c>
       <c r="H8">
-        <v>1.128129390346426</v>
+        <v>1.117946837574121</v>
       </c>
       <c r="I8">
-        <v>85.66359154604318</v>
+        <v>81.6824770669085</v>
       </c>
       <c r="J8">
-        <v>8.962706032243027</v>
+        <v>8.546174830209404</v>
       </c>
       <c r="K8">
-        <v>12019.16804335854</v>
+        <v>11460.59137080741</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>8.962706032243027</v>
+        <v>8.546174830209404</v>
       </c>
       <c r="N8">
         <v>0.78</v>
@@ -4464,13 +5550,13 @@
         <v>0.357</v>
       </c>
       <c r="P8">
-        <v>20040683.90933125</v>
+        <v>19395382.82052588</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>20040683.90933125</v>
+        <v>19395382.82052588</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -4481,37 +5567,37 @@
         <v>109</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="D9" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="E9" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F9">
-        <v>96</v>
+        <v>93.63636363636364</v>
       </c>
       <c r="G9">
-        <v>59.651616</v>
+        <v>58.18292090909091</v>
       </c>
       <c r="H9">
-        <v>1.127027724832289</v>
+        <v>1.116999136322191</v>
       </c>
       <c r="I9">
-        <v>84.64784612676344</v>
+        <v>80.77408476341613</v>
       </c>
       <c r="J9">
-        <v>8.856431856338219</v>
+        <v>8.451132665490242</v>
       </c>
       <c r="K9">
-        <v>11876.65224798668</v>
+        <v>11333.13792707572</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>8.856431856338219</v>
+        <v>8.451132665490242</v>
       </c>
       <c r="N9">
         <v>0.78</v>
@@ -4520,13 +5606,13 @@
         <v>0.357</v>
       </c>
       <c r="P9">
-        <v>19875782.80006103</v>
+        <v>19248521.98146494</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>19875782.80006103</v>
+        <v>19248521.98146494</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -4537,37 +5623,37 @@
         <v>110</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="D10" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="E10" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F10">
-        <v>109</v>
+        <v>105.4545454545455</v>
       </c>
       <c r="G10">
-        <v>67.729439</v>
+        <v>65.52639636363637</v>
       </c>
       <c r="H10">
-        <v>1.100359871377582</v>
+        <v>1.102371267972709</v>
       </c>
       <c r="I10">
-        <v>55.80594080667674</v>
+        <v>58.73336040657352</v>
       </c>
       <c r="J10">
-        <v>5.838796077492993</v>
+        <v>6.145082573697146</v>
       </c>
       <c r="K10">
-        <v>7829.942315839653</v>
+        <v>8240.678632979347</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>5.838796077492993</v>
+        <v>6.145082573697146</v>
       </c>
       <c r="N10">
         <v>0.78</v>
@@ -4576,13 +5662,13 @@
         <v>0.357</v>
       </c>
       <c r="P10">
-        <v>15267311.98016097</v>
+        <v>15728559.19260539</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>15267311.98016097</v>
+        <v>15728559.19260539</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -4593,37 +5679,37 @@
         <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="E11" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F11">
-        <v>122</v>
+        <v>117.2727272727273</v>
       </c>
       <c r="G11">
-        <v>75.80726199999999</v>
+        <v>72.86987181818182</v>
       </c>
       <c r="H11">
-        <v>1.082122838678488</v>
+        <v>1.076056182463523</v>
       </c>
       <c r="I11">
-        <v>45.8551515581164</v>
+        <v>43.6701913632616</v>
       </c>
       <c r="J11">
-        <v>4.797677006788207</v>
+        <v>4.569071649889176</v>
       </c>
       <c r="K11">
-        <v>6433.780819643121</v>
+        <v>6127.216463934383</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>4.797677006788207</v>
+        <v>4.569071649889176</v>
       </c>
       <c r="N11">
         <v>0.78</v>
@@ -4632,13 +5718,13 @@
         <v>0.357</v>
       </c>
       <c r="P11">
-        <v>13710447.5285542</v>
+        <v>13370871.01226343</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11">
-        <v>13710447.5285542</v>
+        <v>13370871.01226343</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -4649,37 +5735,37 @@
         <v>112</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="D12" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F12">
-        <v>135</v>
+        <v>129.0909090909091</v>
       </c>
       <c r="G12">
-        <v>83.885085</v>
+        <v>80.21334727272728</v>
       </c>
       <c r="H12">
-        <v>1.081690955821189</v>
+        <v>1.075679233654487</v>
       </c>
       <c r="I12">
-        <v>45.51149304109094</v>
+        <v>43.35713951845845</v>
       </c>
       <c r="J12">
-        <v>4.761721121586729</v>
+        <v>4.536318042350857</v>
       </c>
       <c r="K12">
-        <v>6385.563258470235</v>
+        <v>6083.293221153346</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>4.761721121586729</v>
+        <v>4.536318042350857</v>
       </c>
       <c r="N12">
         <v>0.78</v>
@@ -4688,13 +5774,13 @@
         <v>0.357</v>
       </c>
       <c r="P12">
-        <v>13656983.41707673</v>
+        <v>13322285.00423805</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>13656983.41707673</v>
+        <v>13322285.00423805</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -4705,37 +5791,37 @@
         <v>113</v>
       </c>
       <c r="C13" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" t="s">
         <v>206</v>
       </c>
-      <c r="D13" t="s">
-        <v>182</v>
-      </c>
       <c r="E13" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F13">
-        <v>148</v>
+        <v>140.9090909090909</v>
       </c>
       <c r="G13">
-        <v>91.962908</v>
+        <v>87.55682272727275</v>
       </c>
       <c r="H13">
-        <v>1.081263800106097</v>
+        <v>1.075306010812164</v>
       </c>
       <c r="I13">
-        <v>45.17225093402187</v>
+        <v>43.04772559357354</v>
       </c>
       <c r="J13">
-        <v>4.72622731115287</v>
+        <v>4.503945058671606</v>
       </c>
       <c r="K13">
-        <v>6337.965348802222</v>
+        <v>6039.880402579797</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>4.72622731115287</v>
+        <v>4.503945058671606</v>
       </c>
       <c r="N13">
         <v>0.78</v>
@@ -4744,13 +5830,13 @@
         <v>0.357</v>
       </c>
       <c r="P13">
-        <v>13604226.25292682</v>
+        <v>13274280.12597966</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>13604226.25292682</v>
+        <v>13274280.12597966</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -4761,37 +5847,37 @@
         <v>114</v>
       </c>
       <c r="C14" t="s">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="D14" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="E14" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F14">
-        <v>161</v>
+        <v>152.7272727272727</v>
       </c>
       <c r="G14">
-        <v>100.040731</v>
+        <v>94.9002981818182</v>
       </c>
       <c r="H14">
-        <v>1.080841286758532</v>
+        <v>1.074937429258298</v>
       </c>
       <c r="I14">
-        <v>44.83734127761439</v>
+        <v>42.74243741613079</v>
       </c>
       <c r="J14">
-        <v>4.691186791095684</v>
+        <v>4.472003738676076</v>
       </c>
       <c r="K14">
-        <v>6290.975310595134</v>
+        <v>5997.046453639391</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>4.691186791095684</v>
+        <v>4.472003738676076</v>
       </c>
       <c r="N14">
         <v>0.78</v>
@@ -4800,13 +5886,13 @@
         <v>0.357</v>
       </c>
       <c r="P14">
-        <v>13552162.21538609</v>
+        <v>13226931.44501329</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>13552162.21538609</v>
+        <v>13226931.44501329</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -4817,37 +5903,37 @@
         <v>115</v>
       </c>
       <c r="C15" t="s">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="D15" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="E15" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F15">
-        <v>174</v>
+        <v>164.5454545454546</v>
       </c>
       <c r="G15">
-        <v>108.118554</v>
+        <v>102.2437736363636</v>
       </c>
       <c r="H15">
-        <v>1.080423355098215</v>
+        <v>1.074571723734568</v>
       </c>
       <c r="I15">
-        <v>44.50669403189853</v>
+        <v>42.44025143830053</v>
       </c>
       <c r="J15">
-        <v>4.656592233358407</v>
+        <v>4.440386991847258</v>
       </c>
       <c r="K15">
-        <v>6244.583316778291</v>
+        <v>5954.64776380701</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>4.656592233358407</v>
+        <v>4.440386991847258</v>
       </c>
       <c r="N15">
         <v>0.78</v>
@@ -4856,13 +5942,13 @@
         <v>0.357</v>
       </c>
       <c r="P15">
-        <v>13500779.6754841</v>
+        <v>13180079.64569585</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>13500779.6754841</v>
+        <v>13180079.64569585</v>
       </c>
     </row>
     <row r="16" spans="1:18">
@@ -4873,37 +5959,37 @@
         <v>116</v>
       </c>
       <c r="C16" t="s">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="E16" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F16">
-        <v>187</v>
+        <v>176.3636363636364</v>
       </c>
       <c r="G16">
-        <v>116.196377</v>
+        <v>109.5872490909091</v>
       </c>
       <c r="H16">
-        <v>1.080009912685923</v>
+        <v>1.074209937926107</v>
       </c>
       <c r="I16">
-        <v>44.18022302115279</v>
+        <v>42.14172995784224</v>
       </c>
       <c r="J16">
-        <v>4.622434621652499</v>
+        <v>4.409153649591002</v>
       </c>
       <c r="K16">
-        <v>6198.777276328434</v>
+        <v>5912.763227174526</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>4.622434621652499</v>
+        <v>4.409153649591002</v>
       </c>
       <c r="N16">
         <v>0.78</v>
@@ -4912,51 +5998,54 @@
         <v>0.357</v>
       </c>
       <c r="P16">
-        <v>13450064.52346317</v>
+        <v>13133811.38246208</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>13450064.52346317</v>
+        <v>13133811.38246208</v>
       </c>
     </row>
     <row r="17" spans="1:18">
+      <c r="A17">
+        <v>1</v>
+      </c>
       <c r="B17" t="s">
         <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="D17" t="s">
-        <v>187</v>
+        <v>213</v>
       </c>
       <c r="E17" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="F17">
-        <v>200</v>
+        <v>188.1818181818182</v>
       </c>
       <c r="G17">
-        <v>124.2742</v>
+        <v>116.9307245454546</v>
       </c>
       <c r="H17">
-        <v>1.079600891132993</v>
+        <v>1.07385186693244</v>
       </c>
       <c r="I17">
-        <v>43.85785592164184</v>
+        <v>41.84673069000261</v>
       </c>
       <c r="J17">
-        <v>4.588706388978171</v>
+        <v>4.378288825111254</v>
       </c>
       <c r="K17">
-        <v>6153.547041747506</v>
+        <v>5871.372880250693</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>12.5</v>
+        <v>4.378288825111254</v>
       </c>
       <c r="N17">
         <v>0.78</v>
@@ -4965,54 +6054,51 @@
         <v>0.357</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>13088104.0502434</v>
       </c>
       <c r="Q17">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R17">
-        <v>16916025.69007904</v>
+        <v>13088104.0502434</v>
       </c>
     </row>
     <row r="18" spans="1:18">
-      <c r="A18">
-        <v>2</v>
-      </c>
       <c r="B18" t="s">
         <v>118</v>
       </c>
       <c r="C18" t="s">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="D18" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="E18" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="F18">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="G18">
-        <v>139.808475</v>
+        <v>124.2742</v>
       </c>
       <c r="H18">
-        <v>1.171513956684256</v>
+        <v>1.073497749671236</v>
       </c>
       <c r="I18">
-        <v>91.04760493108455</v>
+        <v>41.5553610568925</v>
       </c>
       <c r="J18">
-        <v>9.526018034143515</v>
+        <v>4.34780375763793</v>
       </c>
       <c r="K18">
-        <v>12774.58070414714</v>
+        <v>5830.491795067617</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>9.526018034143515</v>
+        <v>12.5</v>
       </c>
       <c r="N18">
         <v>0.78</v>
@@ -5021,13 +6107,13 @@
         <v>0.357</v>
       </c>
       <c r="P18">
-        <v>20917706.65978424</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R18">
-        <v>20917706.65978424</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -5038,37 +6124,37 @@
         <v>119</v>
       </c>
       <c r="C19" t="s">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="D19" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="E19" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F19">
-        <v>250</v>
+        <v>225</v>
       </c>
       <c r="G19">
-        <v>155.34275</v>
+        <v>139.808475</v>
       </c>
       <c r="H19">
-        <v>1.169469331334185</v>
+        <v>1.177043298047331</v>
       </c>
       <c r="I19">
-        <v>89.5906973086508</v>
+        <v>96.2123142022311</v>
       </c>
       <c r="J19">
-        <v>9.373586475994456</v>
+        <v>10.06638495203542</v>
       </c>
       <c r="K19">
-        <v>12570.16693603809</v>
+        <v>13499.22354837854</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>9.373586475994456</v>
+        <v>10.06638495203542</v>
       </c>
       <c r="N19">
         <v>0.78</v>
@@ -5077,13 +6163,13 @@
         <v>0.357</v>
       </c>
       <c r="P19">
-        <v>20679894.58541565</v>
+        <v>21763679.27687195</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
       <c r="R19">
-        <v>20679894.58541565</v>
+        <v>21763679.27687195</v>
       </c>
     </row>
     <row r="20" spans="1:18">
@@ -5094,37 +6180,37 @@
         <v>120</v>
       </c>
       <c r="C20" t="s">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="D20" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="E20" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F20">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="G20">
-        <v>170.877025</v>
+        <v>155.34275</v>
       </c>
       <c r="H20">
-        <v>1.167476939766664</v>
+        <v>1.174803587838369</v>
       </c>
       <c r="I20">
-        <v>88.17499850039677</v>
+        <v>94.54793418988392</v>
       </c>
       <c r="J20">
-        <v>9.225466463518005</v>
+        <v>9.892246225099244</v>
       </c>
       <c r="K20">
-        <v>12371.53503690691</v>
+        <v>13265.70003278259</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>9.225466463518005</v>
+        <v>9.892246225099244</v>
       </c>
       <c r="N20">
         <v>0.78</v>
@@ -5133,51 +6219,54 @@
         <v>0.357</v>
       </c>
       <c r="P20">
-        <v>20449157.88384064</v>
+        <v>21490556.29018191</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>20449157.88384064</v>
+        <v>21490556.29018191</v>
       </c>
     </row>
     <row r="21" spans="1:18">
+      <c r="A21">
+        <v>2</v>
+      </c>
       <c r="B21" t="s">
         <v>121</v>
       </c>
       <c r="C21" t="s">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="D21" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="F21">
-        <v>300</v>
+        <v>275.0000000000001</v>
       </c>
       <c r="G21">
-        <v>186.4113</v>
+        <v>170.877025</v>
       </c>
       <c r="H21">
-        <v>1.165534716993736</v>
+        <v>1.172614151122827</v>
       </c>
       <c r="I21">
-        <v>86.79881550050851</v>
+        <v>92.92567978871516</v>
       </c>
       <c r="J21">
-        <v>9.08148086296168</v>
+        <v>9.722514965356615</v>
       </c>
       <c r="K21">
-        <v>12178.44746684887</v>
+        <v>13038.08701884253</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>12.5</v>
+        <v>9.722514965356615</v>
       </c>
       <c r="N21">
         <v>0.78</v>
@@ -5186,54 +6275,51 @@
         <v>0.357</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>21224803.40740003</v>
       </c>
       <c r="Q21">
-        <v>16916025.69007904</v>
+        <v>0</v>
       </c>
       <c r="R21">
-        <v>16916025.69007904</v>
+        <v>21224803.40740003</v>
       </c>
     </row>
     <row r="22" spans="1:18">
-      <c r="A22">
-        <v>3</v>
-      </c>
       <c r="B22" t="s">
         <v>122</v>
       </c>
       <c r="C22" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="D22" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="E22" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="F22">
-        <v>325</v>
+        <v>300.0000000000001</v>
       </c>
       <c r="G22">
-        <v>201.945575</v>
+        <v>186.4113</v>
       </c>
       <c r="H22">
-        <v>1.163640708454631</v>
+        <v>1.170495072865935</v>
       </c>
       <c r="I22">
-        <v>85.46055001989554</v>
+        <v>91.35545845273612</v>
       </c>
       <c r="J22">
-        <v>8.941462450479104</v>
+        <v>9.558227757851759</v>
       </c>
       <c r="K22">
-        <v>11990.67997534149</v>
+        <v>12817.77458783436</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>8.941462450479104</v>
+        <v>12.5</v>
       </c>
       <c r="N22">
         <v>0.78</v>
@@ -5242,13 +6328,13 @@
         <v>0.357</v>
       </c>
       <c r="P22">
-        <v>20007706.99482556</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>16916025.69007904</v>
       </c>
       <c r="R22">
-        <v>20007706.99482556</v>
+        <v>16916025.69007904</v>
       </c>
     </row>
     <row r="23" spans="1:18">
@@ -5259,37 +6345,37 @@
         <v>123</v>
       </c>
       <c r="C23" t="s">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="D23" t="s">
-        <v>193</v>
+        <v>224</v>
       </c>
       <c r="E23" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F23">
-        <v>350</v>
+        <v>325.0000000000001</v>
       </c>
       <c r="G23">
-        <v>217.47985</v>
+        <v>201.945575</v>
       </c>
       <c r="H23">
-        <v>1.161793062526125</v>
+        <v>1.168422733861315</v>
       </c>
       <c r="I23">
-        <v>84.15868406377371</v>
+        <v>89.82431205124385</v>
       </c>
       <c r="J23">
-        <v>8.805252403158905</v>
+        <v>9.398028835051212</v>
       </c>
       <c r="K23">
-        <v>11808.01957768415</v>
+        <v>12602.94462838038</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>8.805252403158905</v>
+        <v>9.398028835051212</v>
       </c>
       <c r="N23">
         <v>0.78</v>
@@ -5298,13 +6384,13 @@
         <v>0.357</v>
       </c>
       <c r="P23">
-        <v>19796432.9672142</v>
+        <v>20718003.17416135</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
       <c r="R23">
-        <v>19796432.9672142</v>
+        <v>20718003.17416135</v>
       </c>
     </row>
     <row r="24" spans="1:18">
@@ -5315,37 +6401,37 @@
         <v>124</v>
       </c>
       <c r="C24" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="D24" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="E24" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="F24">
-        <v>375</v>
+        <v>350.0000000000001</v>
       </c>
       <c r="G24">
-        <v>233.014125</v>
+        <v>217.47985</v>
       </c>
       <c r="H24">
-        <v>1.159990023811786</v>
+        <v>1.166414577686659</v>
       </c>
       <c r="I24">
-        <v>82.89178262798556</v>
+        <v>88.34079338086421</v>
       </c>
       <c r="J24">
-        <v>8.672700581132009</v>
+        <v>9.242813048554448</v>
       </c>
       <c r="K24">
-        <v>11630.26493330965</v>
+        <v>12394.79715437249</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>8.672700581132009</v>
+        <v>9.242813048554448</v>
       </c>
       <c r="N24">
         <v>0.78</v>
@@ -5354,13 +6440,69 @@
         <v>0.357</v>
       </c>
       <c r="P24">
-        <v>19591112.32266644</v>
+        <v>20476162.07385932</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>19591112.32266644</v>
+        <v>20476162.07385932</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" t="s">
+        <v>253</v>
+      </c>
+      <c r="D25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E25" t="s">
+        <v>268</v>
+      </c>
+      <c r="F25">
+        <v>375.0000000000001</v>
+      </c>
+      <c r="G25">
+        <v>233.014125</v>
+      </c>
+      <c r="H25">
+        <v>1.164450022888937</v>
+      </c>
+      <c r="I25">
+        <v>86.89361461616916</v>
+      </c>
+      <c r="J25">
+        <v>9.091399389496097</v>
+      </c>
+      <c r="K25">
+        <v>12191.74840930206</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>9.091399389496097</v>
+      </c>
+      <c r="N25">
+        <v>0.78</v>
+      </c>
+      <c r="O25">
+        <v>0.357</v>
+      </c>
+      <c r="P25">
+        <v>20240608.84944247</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>20240608.84944247</v>
       </c>
     </row>
   </sheetData>
@@ -5370,7 +6512,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5378,15 +6520,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="B2">
         <v>4865822.962046022</v>
@@ -5394,15 +6536,15 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="B3">
-        <v>4352017.909921894</v>
+        <v>4336559.807486307</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="B4">
         <v>4865822.962046022</v>
@@ -5410,71 +6552,71 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B5">
-        <v>4355635.240885197</v>
+        <v>4794198.453627313</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="B6">
-        <v>4865822.962046022</v>
+        <v>4340504.755143139</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B7">
-        <v>4359193.289164404</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="B8">
-        <v>4865822.962046022</v>
+        <v>4722547.955580813</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="B9">
-        <v>4656524.152573038</v>
+        <v>4344391.794437824</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B10">
-        <v>4362698.168959313</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="B11">
-        <v>4865822.962046022</v>
+        <v>4650847.311906654</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="B12">
-        <v>4366151.308787311</v>
+        <v>4348223.961192051</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="B13">
         <v>4865822.962046022</v>
@@ -5482,103 +6624,103 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B14">
-        <v>4369554.288709993</v>
+        <v>4504622.583510358</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="B15">
-        <v>4865822.962046022</v>
+        <v>4352005.453747332</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B16">
-        <v>4313178.083723024</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>176</v>
+        <v>235</v>
       </c>
       <c r="B17">
-        <v>4865822.962046022</v>
+        <v>4355751.707740526</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B18">
-        <v>4317394.199659195</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>177</v>
+        <v>236</v>
       </c>
       <c r="B19">
-        <v>4865822.962046022</v>
+        <v>4352463.640046223</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B20">
-        <v>4642952.014375147</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B21">
-        <v>4422028.727705522</v>
+        <v>4702216.066588552</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>179</v>
+        <v>237</v>
       </c>
       <c r="B22">
-        <v>4865822.962046022</v>
+        <v>4356156.422884206</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B23">
-        <v>4496553.245275066</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="B24">
-        <v>4865822.962046022</v>
+        <v>4535236.113741167</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="B25">
-        <v>4498348.567916081</v>
+        <v>4413960.254057059</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="B26">
         <v>4865822.962046022</v>
@@ -5586,15 +6728,15 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="B27">
-        <v>4500125.650714075</v>
+        <v>4521904.191755312</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B28">
         <v>4865822.962046022</v>
@@ -5602,23 +6744,23 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="B29">
-        <v>4811535.140028085</v>
+        <v>4854789.212054112</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>207</v>
+        <v>240</v>
       </c>
       <c r="B30">
-        <v>4501884.8018276</v>
+        <v>4523488.796483492</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B31">
         <v>4865822.962046022</v>
@@ -5626,47 +6768,47 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B32">
-        <v>4503626.230482307</v>
+        <v>4731939.229730661</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>185</v>
+        <v>241</v>
       </c>
       <c r="B33">
-        <v>4865822.962046022</v>
+        <v>4525058.832667484</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B34">
-        <v>4505350.279559007</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="B35">
-        <v>4865822.962046022</v>
+        <v>4607039.580147291</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="B36">
-        <v>4507057.193088789</v>
+        <v>4526610.414341434</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="B37">
         <v>4865822.962046022</v>
@@ -5674,15 +6816,15 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="B38">
-        <v>4153448.564810779</v>
+        <v>4528150.941042197</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="B39">
         <v>4865822.962046022</v>
@@ -5690,47 +6832,47 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B40">
-        <v>4160710.188521888</v>
+        <v>4807168.102858045</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="B41">
-        <v>4865822.962046022</v>
+        <v>4529675.988140724</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B42">
-        <v>4167810.768937777</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="B43">
-        <v>4865822.962046022</v>
+        <v>4671284.311111992</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="B44">
-        <v>4174755.921982693</v>
+        <v>4531186.387882071</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="B45">
         <v>4865822.962046022</v>
@@ -5738,15 +6880,15 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>215</v>
+        <v>246</v>
       </c>
       <c r="B46">
-        <v>4181550.994815283</v>
+        <v>4532681.101135243</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="B47">
         <v>4865822.962046022</v>
@@ -5754,42 +6896,186 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B48">
-        <v>4188201.082442428</v>
+        <v>4391091.449735745</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="B49">
-        <v>4865822.962046022</v>
+        <v>4133937.103348901</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B50">
-        <v>4194711.042476623</v>
+        <v>4865822.962046022</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="B51">
-        <v>4865822.962046022</v>
+        <v>4636710.743668576</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
+        <v>248</v>
+      </c>
+      <c r="B52">
+        <v>4141818.268532108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
         <v>218</v>
       </c>
-      <c r="B52">
-        <v>4201085.509443228</v>
+      <c r="B53">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>219</v>
+      </c>
+      <c r="B54">
+        <v>4400914.935676467</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55">
+        <v>4149551.629908944</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>220</v>
+      </c>
+      <c r="B56">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>221</v>
+      </c>
+      <c r="B57">
+        <v>4641270.4856087</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>250</v>
+      </c>
+      <c r="B58">
+        <v>4157064.027729862</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>222</v>
+      </c>
+      <c r="B59">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>223</v>
+      </c>
+      <c r="B60">
+        <v>4410293.334579322</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>251</v>
+      </c>
+      <c r="B61">
+        <v>4164437.083456788</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>225</v>
+      </c>
+      <c r="B63">
+        <v>4645631.06209994</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>252</v>
+      </c>
+      <c r="B64">
+        <v>4171606.781266716</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>226</v>
+      </c>
+      <c r="B65">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>227</v>
+      </c>
+      <c r="B66">
+        <v>4419256.992265442</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>253</v>
+      </c>
+      <c r="B67">
+        <v>4178644.739062462</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68">
+        <v>4865822.962046022</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>229</v>
+      </c>
+      <c r="B69">
+        <v>4649805.566991739</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>254</v>
+      </c>
+      <c r="B70">
+        <v>4185495.351773777</v>
       </c>
     </row>
   </sheetData>
@@ -5807,36 +7093,36 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="B2">
         <v>8.11266027279845</v>
       </c>
       <c r="C2">
-        <v>8.112660272798465</v>
+        <v>8.112660272798408</v>
       </c>
       <c r="D2">
         <v>141.8178946624533</v>
@@ -5845,21 +7131,21 @@
         <v>1150.5204</v>
       </c>
       <c r="F2">
-        <v>1150.520400000002</v>
+        <v>1150.520399999994</v>
       </c>
       <c r="G2">
-        <v>1.75168862461191E-13</v>
+        <v>-5.255065873835731E-13</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="B3">
         <v>21.09291642722411</v>
       </c>
       <c r="C3">
-        <v>21.09291642722411</v>
+        <v>21.09291642722414</v>
       </c>
       <c r="D3">
         <v>141.8178946624533</v>
@@ -5868,21 +7154,21 @@
         <v>2991.353</v>
       </c>
       <c r="F3">
-        <v>2991.352999999999</v>
+        <v>2991.353000000003</v>
       </c>
       <c r="G3">
-        <v>-3.368632015452448E-14</v>
+        <v>1.010589604635734E-13</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="B4">
         <v>16.2253205455969</v>
       </c>
       <c r="C4">
-        <v>16.22532054559689</v>
+        <v>16.22532054559692</v>
       </c>
       <c r="D4">
         <v>141.8178946624533</v>
@@ -5891,10 +7177,10 @@
         <v>2301.0408</v>
       </c>
       <c r="F4">
-        <v>2301.040799999999</v>
+        <v>2301.040800000002</v>
       </c>
       <c r="G4">
-        <v>-4.379221561529776E-14</v>
+        <v>8.758443123059551E-14</v>
       </c>
     </row>
   </sheetData>
